--- a/Traduzido/PTBR/Lang/PTBR/Game/CharaText.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/CharaText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCF5051-843B-4681-8345-EAD1C1696267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1643AF1E-BE30-415C-96B3-8A59278D4308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,13 +167,6 @@
 "Crawling in my Robes! &amp;These wounds will need a Healer!"</t>
   </si>
   <si>
-    <t>「タラララララー♪」
-「チキチキ♪」
-「ドナドナドナ～♪」
-*ジャン*
-*シャリン*</t>
-  </si>
-  <si>
     <t>"S-Stop it..!"
 "Was my music that bad?"</t>
   </si>
@@ -450,12 +443,6 @@
   </si>
   <si>
     <t>twintail</t>
-  </si>
-  <si>
-    <t>All around you is the sensation of being in a sacred place.
-You have seldom felt such an air of peace.
-All around is very quiet  yet you aren't the least bit lonely.
-In your mind you hear the strange echoes of a voice in prayer.</t>
   </si>
   <si>
     <t>辺りは神聖な雰囲気に包まれている。
@@ -1063,20 +1050,6 @@
     <t>merchant_fish</t>
   </si>
   <si>
-    <t>"Fish, fish, fish～♪"
-"Let’s eat some fish～♪"
-"It’s good for your body!"
-"Fish are waiting for us!"
-"White Trevally～♪"</t>
-  </si>
-  <si>
-    <t>「さかなさかなさかな～♪」
-「さかなを食べよう～♪」
-「体にいいのさ！」
-「魚は私たちを待っている{のだ}」
-「シマアジ～♪」</t>
-  </si>
-  <si>
     <t>@merchant</t>
   </si>
   <si>
@@ -1118,13 +1091,6 @@
 "I've got a cat I wanna frame! &amp;And now nothing shall ever be the same."</t>
   </si>
   <si>
-    <t>「今日のご飯はなんにしよう」
-「ガロクの作品には遊びがないね」
-「暇だぬ」
-「おお、客人かな？」
-「猫 イズ フリ～ダ～ム♪ 猫 イズ フリ～ダ～ム♪」</t>
-  </si>
-  <si>
     <t>nino</t>
   </si>
   <si>
@@ -1192,12 +1158,6 @@
 "Shit!"</t>
   </si>
   <si>
-    <t>「償いなさい」
-「あなたには罰が必要なようですね」
-「てめー♪」
-「くそがーっ」</t>
-  </si>
-  <si>
     <t>"God help me!"</t>
   </si>
   <si>
@@ -1205,9 +1165,6 @@
   </si>
   <si>
     <t>"Go to hell."</t>
-  </si>
-  <si>
-    <t>「地獄に墜ちなさい♪」</t>
   </si>
   <si>
     <t>punk</t>
@@ -1335,41 +1292,6 @@
     <t>olderyoungersister</t>
   </si>
   <si>
-    <t xml:space="preserve">"#onii"
-"#onii"
-"#onii"
-"#onii"
-"#onii"
-"Can I hold your hand, #brother2?"
-"What do you want to eat today, #brother2?"
-"We'll always be together, #brother2♪"
-"What are you doing, #brother2?"
-"I love you so much, #brother2♪"
-</t>
-  </si>
-  <si>
-    <t>「#onii」
-「#onii」
-「#onii」
-「#onii」
-「#onii」
-「#brother2、手をつないでいい？」
-「#brother2、今日のご飯は何がいい？」
-「ずっと一緒だよ、#brother2♪」
-「#brother2、何してるの？」
-「大好きだよ、#brother2♪」</t>
-  </si>
-  <si>
-    <t>"Move over, #brother2!"
-"Don't touch #brother2!"
-"Watch me, #brother2♪"</t>
-  </si>
-  <si>
-    <t>「#brother2どいて！」
-「#brother2に触るな！」
-「#brother2、見ててね♪」</t>
-  </si>
-  <si>
     <t>"I can't...#brother2!"</t>
   </si>
   <si>
@@ -1535,24 +1457,6 @@
     <t>mermaid_hotspring</t>
   </si>
   <si>
-    <t>"Ah, this is nice～"
-"Lalala～"
-"Lanlanlan"
-"Ufufu"
-"My, my♪"
-You hear the splashing sound of water.
-You smell the scent of the hot spring.</t>
-  </si>
-  <si>
-    <t>「あ～いいわ～」
-「ラララ～」
-「ランラン」
-「うふふ」
-「あらあら♪」
-水をパシャパシャする音が聞こえる。
-温泉の香りがする。</t>
-  </si>
-  <si>
     <t>"That's not allowed!"
 "Stop that!"
 "I'm going to splash you with hot water!"</t>
@@ -1561,20 +1465,6 @@
     <t>「だめです！」
 「やめなさい！」
 「お湯を掛けますよ？」</t>
-  </si>
-  <si>
-    <t>"Aahn♪"</t>
-  </si>
-  <si>
-    <t>「ああん♪」</t>
-  </si>
-  <si>
-    <t>"You've brought this upon yourself."
-"Serves you right, pest♪"</t>
-  </si>
-  <si>
-    <t>「自業自得です」
-「ゴミ虫が♪」</t>
   </si>
   <si>
     <t>xabi</t>
@@ -2013,12 +1903,6 @@
     <t>sheep</t>
   </si>
   <si>
-    <t>「メェェ」
-「メ～」
-「メェエェェェ」
-「メ～♪」</t>
-  </si>
-  <si>
     <t>「メー！」</t>
   </si>
   <si>
@@ -2135,37 +2019,11 @@
     <t>maid</t>
   </si>
   <si>
-    <t>"Oh Master, how can I help you♪"
-You can feel the maid looking at you...
-"Gosh, so busy!"
-"All set!"
-"#title♪"</t>
-  </si>
-  <si>
-    <t>「用事はありませんか♪」
-メイドの熱い視線を感じる…
-「ああ、忙しい{よ}！」
-「{よし}」
-「#title様♪」</t>
-  </si>
-  <si>
     <t>「おいたが過ぎますよ！」
 「お仕置きです！」</t>
   </si>
   <si>
     <t>theolucia</t>
-  </si>
-  <si>
-    <t>"I wonder what the runic translation of this is..."
-You hear someone arranging books on shelves.
-"Sis, you made a mess again!"
-"Ta-la-la♪"</t>
-  </si>
-  <si>
-    <t>「この文はどういう意味かしら…」
-誰かが本を整理する音が聞こえる。
-「姉さんったら、また散らかして！」
-「ふんふん♪」</t>
   </si>
   <si>
     <t>"Stop it, please!"
@@ -2208,24 +2066,6 @@
     <t>gwen</t>
   </si>
   <si>
-    <t>"Ah... What a cute flower!"
-"Can I come with you?"
-"I want Sandra's red cape..."
-"That's a pretty flower～!"
-"Red is my favorite color!"
-"My mom made this flower crown for me."
-"La la la～♪"</t>
-  </si>
-  <si>
-    <t>「あー…かわいいお花！」
-「ついていっていい？」
-「サンドラさんの赤いケープほしい…」
-「ざっつあぷりちーふらわー」
-「赤って好きな色なの～」
-「この花の冠はお母さんに編んでもらったの」
-「るるる♪」</t>
-  </si>
-  <si>
     <t>"Why would you do that?"</t>
   </si>
   <si>
@@ -2243,18 +2083,6 @@
   <si>
     <t>"Eek!"
 "No way!"</t>
-  </si>
-  <si>
-    <t>The young lady brushes off the dust from her clothes.
-The young lady looks at you and smiles brightly.
-You were captivated by the young lady.
-"Ufufu♪"</t>
-  </si>
-  <si>
-    <t>嬢は服のほこりをはらった。
-嬢はあなたを見てにっこり笑った。
-あなたは嬢に見とれた。
-「うふふ♪」</t>
   </si>
   <si>
     <t>banker</t>
@@ -2381,13 +2209,6 @@
   </si>
   <si>
     <t>big_daddy</t>
-  </si>
-  <si>
-    <t>You feel the ground tremble with the steps of a large, angry  Protector.
-Little Sister: "Look #bigdaddy, the angel."
-Little Sister: "Look #bigdaddy, the angels are dancing in the sky!"
-You hear the tread of something you do NOT want to anger. Ever.
-* Thump*</t>
   </si>
   <si>
     <t xml:space="preserve"> *ドスン*
@@ -2715,54 +2536,12 @@
     <t>adv_gaki</t>
   </si>
   <si>
-    <t>"Weakling."
-"Weakling?"
-"Weak-weak-weaaklnig♪"
-"Weaakling-weaakling♥"
-You feel like you are being insulted in a soft voice.
-Gaki grins wickedly.</t>
-  </si>
-  <si>
-    <t>「ざこ」 
-「ざこ？」
-「ざこざこざーこ♪」
-「ざぁこざぁこ♥」 
-小声で罵倒されている気がする。
-牙姫はにやりと笑った。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Weakling!!"
-"Weak-weak-weak-weak-weaakling♪"
-"Weakling! Weakling!"
-"Weaak-weaakling♥"
-"Weaaaakling."
-</t>
-  </si>
-  <si>
-    <t>「ざこ！！」 
-「ざーこざこざこざっこざこー♪」
-「ざこっ！ ざこっ！」
-「ざぁこざぁこ♥」
-「ざぁ～こぉ～」</t>
-  </si>
-  <si>
     <t>"Weakling…"
 "Weaaaaakling!!"</t>
   </si>
   <si>
     <t xml:space="preserve">「ざこ……」 
 「ざっっっっっこ！！」 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Weaaaaakling♪"
-"Weaak-weaakling♥"
-"Weak-weak-weak-weak-weak-weak-weak-weakling."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ざっっっっっっっっっっこ♪」
-「ざぁこざぁこ♥」
-「ざこざこざこざこざこざこざこざこ」 </t>
   </si>
   <si>
     <t>adv_verna</t>
@@ -3075,11 +2854,6 @@
 "Camponês ganancioso!"</t>
   </si>
   <si>
-    <t>"Saia da frente, #brother2!"_x000D_
-"Não toque no #brother2!"_x000D_
-"Olhe para mim, #brother2♪"</t>
-  </si>
-  <si>
     <t>"Pare com isso!"_x000D_
 "Guardas! Peguem-no!"</t>
   </si>
@@ -3132,11 +2906,6 @@
     <t>"Mostre-me sua dança."</t>
   </si>
   <si>
-    <t>Irmãzinha: "Matem! Matem!"  
-Irmãzinha: "Esmaguem em pedaços!"  
-Irmãzinha: "Vá, #bigdaddy, vá!!"</t>
-  </si>
-  <si>
     <t>"Tolo."
 "Você deseja morrer."
 "Pare."
@@ -3155,14 +2924,6 @@
   </si>
   <si>
     <t>"Vou te mostrar o que significa ser um homem de verdade!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Fraco!!"
-"Fra-fra-fra-fraaco♪"
-"Fraco! Fraco!"
-"Fraquiiinho♥"
-"Fraaaaaaco."
-</t>
   </si>
   <si>
     <t xml:space="preserve">"Sombras, dancem comigo."
@@ -3237,9 +2998,6 @@
 "O-o que você fez!"</t>
   </si>
   <si>
-    <t xml:space="preserve">Seu jovem insolente!  </t>
-  </si>
-  <si>
     <t>"Deus vai te punir."_x000D_
 "Meus anos restantes..."_x000D_
 "Demônio!"_x000D_
@@ -3329,9 +3087,6 @@
 "Não!"</t>
   </si>
   <si>
-    <t>Aahn♪</t>
-  </si>
-  <si>
     <t>Soldados inúteis.</t>
   </si>
   <si>
@@ -3466,14 +3221,6 @@
 #self abana #his cauda vigorosamente.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Olhe para você."_x000D_
-"Tchau tchau."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Morra, ladrão."
-"Você merece isso."  </t>
-  </si>
-  <si>
     <t>Lixo.</t>
   </si>
   <si>
@@ -3499,65 +3246,13 @@
     <t>Tão fraco.</t>
   </si>
   <si>
-    <t>"Você trouxe isso para si mesmo."_x000D_
-"Bem feito, praga♪"</t>
-  </si>
-  <si>
     <t>Tolo.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Arrependa-se!"_x000D_
-"Você teve o que mereceu."_x000D_
-"Uma morte adequada para um herege."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Já acabou?"_x000D_
-"Que pena."   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiama tira a poeira das roupas.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Então essa é a sua história... Um final triste."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você é inútil!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu não gosto de coisas assustadoras...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A jovem tira a poeira das roupas.  _x000D_
-A jovem olha para você e sorri radiante.  _x000D_
-Você ficou cativado pela jovem.  _x000D_
-"Ufufu♪"  </t>
-  </si>
-  <si>
     <t>“Que entediante.”</t>
   </si>
   <si>
     <t>Irmãzinha: “Encha sua barriga com o sangue do anjo.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Heh heh heh..."_x000D_
-"Tolo."_x000D_
-"Retorne para a escuridão."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Que pena."_x000D_
-"Descanse em paz."_x000D_
-"Você não precisa mais sofrer."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Fraaaaco♪"_x000D_
-"Fra-fracooo♥"_x000D_
-"Fraco-fraco-fraco-fraco-fraco-fraco-fraco-fracooo."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Adeus."_x000D_
-"É o fim."_x000D_
-"Bem-vindo ao meu mundo."_x000D_
-"Que você seja engolido pela escuridão."  </t>
   </si>
   <si>
     <t xml:space="preserve">"Hmph."_x000D_
@@ -3565,14 +3260,6 @@
   </si>
   <si>
     <t xml:space="preserve">"Morra!" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O defensor tira a poeira das #his roupas.  
-O defensor sorri para você. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Me desculpe..."
-"Essas correntes que um dia foram meu desejo &amp; nunca irão me soltar."  </t>
   </si>
   <si>
     <t>*flutter*_x000D_
@@ -3584,11 +3271,6 @@
     <t>*flutter*_x000D_
 *flick*_x000D_
 *flap flap*</t>
-  </si>
-  <si>
-    <t>"Afiem suas espadas e bebam uma cerveja♫♫"_x000D_
-"Noventa e nove Yeeks num buraco úmido. &amp;Noventa e nove Yeeks num Buraco!"  _x000D_
-"Rastejando nas minhas vestes! &amp;Essas feridas vão precisar de um curandeiro!"</t>
   </si>
   <si>
     <t>Você ouve o som de coqueteleiras._x000D_
@@ -3634,12 +3316,6 @@
 Raramente você sentiu um ar de paz tão intenso._x000D_
 Tudo ao redor está muito quieto, mas você não se sente nem um pouco solitário._x000D_
 Em sua mente, você ouve os estranhos ecos de uma voz em oração.</t>
-  </si>
-  <si>
-    <t>"Eu gostaria que meu jovem mestre tivesse mais consciência de si mesmo."
-"Sabe o que diferencia um soldado de um brutamontes? &amp;O brilho nos botões dele, é isso."
-"Oh, Princesa Stasha…"
-"Que graça!"</t>
   </si>
   <si>
     <t>"Hmm... Vamos ver."
@@ -3705,13 +3381,6 @@
 "Vamos apenas colocá-lo na prateleira, ó nobre lâmina, &amp;pois logo seus irmãos se juntarão a você."</t>
   </si>
   <si>
-    <t>"Peixe, peixe, peixe～♪"
-"Vamos comer um pouco de peixe～♪"
-"É bom para o seu corpo!"
-"Os peixes estão nos esperando!"
-"Trevally Branco～♪"</t>
-  </si>
-  <si>
     <t>A área está vibrante com foliões.
 Risadas alegres ecoam ao redor.
 Alguém começa a cantarolar uma melodia de #festival.
@@ -3750,19 +3419,6 @@
     <t>A majestade silenciosa da sala faz você se sentir pequeno.
 Você nota o quão alertas e bem armados estão os guardas.
 Em algum lugar, um cravo toca uma melodia digna da nobreza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"#onii"
-"#onii"
-"#onii"
-"#onii"
-"#onii"
-"Posso segurar sua mão, #brother2?"
-"O que você quer comer hoje, #brother2?"
-"Sempre estaremos juntos, #brother2♪"
-"O que você está fazendo, #brother2?"
-"Eu te amo tanto, #brother2♪"
-</t>
   </si>
   <si>
     <t>"Hmmm... Entendo."_x000D_
@@ -3794,15 +3450,6 @@
 Você sintonizou a animada canção dos marinheiros.</t>
   </si>
   <si>
-    <t>"Ah, isso é bom～"
-"Lalala～"
-"Lanlanlan"
-"Ufufu"
-"Ora, ora♪"
-Você ouve o som da água espirrando.
-Você sente o aroma da fonte termal.</t>
-  </si>
-  <si>
     <t>"Um banho quente e relaxante!"
 "Qual fonte termal devo visitar agora?"
 "Fico com fome depois de sair da fonte termal."
@@ -3830,12 +3477,6 @@
 "Esperem até ver o que eu tenho aqui!"</t>
   </si>
   <si>
-    <t xml:space="preserve">*sussurrando*
-"Tenho uma boa história para você."
-"Oh!"
-"Agora eu sei."  </t>
-  </si>
-  <si>
     <t>"Oh Senhor."_x000D_
 "Um pobre cordeiro."_x000D_
 "Tudo é por Ti."_x000D_
@@ -3908,33 +3549,11 @@
     <t>Você ouve uma música animada.</t>
   </si>
   <si>
-    <t>"Oh Mestre, como posso ajudar você♪"_x000D_
-Você sente o olhar da empregada sobre você..._x000D_
-"Nossa, tão ocupada!"_x000D_
-"Tudo pronto!"_x000D_
-"#title♪"</t>
-  </si>
-  <si>
-    <t>"Eu me pergunto qual seria a tradução rúnica disso..."_x000D_
-Você ouve alguém organizando livros nas prateleiras._x000D_
-"Irmã, você fez bagunça de novo!"_x000D_
-"Ta-la-la♪"</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Ó, Elin a Viúva Branca, &amp;seu rosto desvanecendo à luz da lua cheia."_x000D_
 "O que você está olhando?"_x000D_
 "Ó Odina, Deusa da compaixão, &amp;ofereço minha canção em teu sacrifício."_x000D_
 "A luz que brilha no céu sem nuvens, &amp;o duque de cabelos vermelhos que dissipa a escuridão eterna!"_x000D_
 Você sentiu um olhar frio atrás de você. </t>
-  </si>
-  <si>
-    <t>"Ah... Que flor bonita!"_x000D_
-"Posso ir com você?"_x000D_
-"Eu quero a capa vermelha da Sandra..."_x000D_
-"Essa é uma flor muito bonita～!"_x000D_
-"Vermelho é minha cor favorita!"_x000D_
-"Minha mãe fez essa coroa de flores para mim."_x000D_
-"La la la～♪"</t>
   </si>
   <si>
     <t>Pare... Deixe-me verificar se você está na minha lista.</t>
@@ -4026,14 +3645,6 @@
     <t>"Um dia, eu encontrarei meu criador e darei um soco nele."_x000D_
 "Você já conheceu algum fanático por bonecas? &amp;Preciso punir um..."_x000D_
 "... Eu não sou sucata."</t>
-  </si>
-  <si>
-    <t>"Fraco."_x000D_
-"Fraco?"_x000D_
-"Fra-fra-fraquinho♪"_x000D_
-"Fraquinho-fraquinho♥"_x000D_
-Você sente que está sendo insultado com uma voz suave._x000D_
-Gaki sorri maliciosamente."</t>
   </si>
   <si>
     <t>"A sombra é o meu espelho."_x000D_
@@ -4114,7 +3725,396 @@
     <t>A partir daqui, é a jurisdição da Guilda dos Ladrões...</t>
   </si>
   <si>
-    <t xml:space="preserve">"Que tal uma música ou duas?"  </t>
+    <t>"Eu gostaria que meu jovem mestre tivesse mais consciência de si mesmo."
+"Sabe o que diferencia um soldado de um brutamontes? O brilho nos olhos dele, é isso."
+"Oh, Princesa Stasha…"
+"Que graça!"</t>
+  </si>
+  <si>
+    <t>"Afiem suas espadas e bebam uma cerveja♫♫"_x000D_
+"Noventa e nove Yeeks num buraco úmido. &amp;Noventa e nove Yeeks num Buraco!"_x000D_
+"Rastejando nas minhas vestes! &amp;Essas feridas vão precisar de um curandeiro!"</t>
+  </si>
+  <si>
+    <t>All around you is the sensation of being in a sacred place.
+You have seldom felt such an air of peace.
+All around is very quietyet you aren't the least bit lonely.
+In your mind you hear the strange echoes of a voice in prayer.</t>
+  </si>
+  <si>
+    <t>Seu jovem insolente!</t>
+  </si>
+  <si>
+    <t>"Olhe para você."_x000D_
+"Tchau tchau."</t>
+  </si>
+  <si>
+    <t>"Morra, ladrão."
+"Você merece isso."</t>
+  </si>
+  <si>
+    <t>*sussurrando*
+"Tenho uma boa história para você."
+"Oh!"
+"Agora eu sei."</t>
+  </si>
+  <si>
+    <t>"Arrependa-se!"_x000D_
+"Você teve o que mereceu."_x000D_
+"Uma morte adequada para um herege."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Já acabou?"_x000D_
+"Que pena." </t>
+  </si>
+  <si>
+    <t>Fiama tira a poeira das roupas.</t>
+  </si>
+  <si>
+    <t>"Então essa é a sua história... Um final triste."</t>
+  </si>
+  <si>
+    <t>Você é inútil!</t>
+  </si>
+  <si>
+    <t>Eu não gosto de coisas assustadoras...</t>
+  </si>
+  <si>
+    <t>"Que tal uma música ou duas?"</t>
+  </si>
+  <si>
+    <t>You feel the ground tremble with the steps of a large, angryProtector.
+Little Sister: "Look #bigdaddy, the angel."
+Little Sister: "Look #bigdaddy, the angels are dancing in the sky!"
+You hear the tread of something you do NOT want to anger. Ever.
+* Thump*</t>
+  </si>
+  <si>
+    <t>Irmãzinha: "Matem! Matem!"
+Irmãzinha: "Esmaguem em pedaços!"
+Irmãzinha: "Vá, #bigdaddy, vá!!"</t>
+  </si>
+  <si>
+    <t>"Heh heh heh..."_x000D_
+"Tolo."_x000D_
+"Retorne para a escuridão."</t>
+  </si>
+  <si>
+    <t>"Que pena."_x000D_
+"Descanse em paz."_x000D_
+"Você não precisa mais sofrer."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O defensor tira a poeira das #his roupas.
+O defensor sorri para você. </t>
+  </si>
+  <si>
+    <t>"Adeus."_x000D_
+"É o fim."_x000D_
+"Bem-vindo ao meu mundo."_x000D_
+"Que você seja engolido pela escuridão."</t>
+  </si>
+  <si>
+    <t>"Me desculpe..."
+"Essas correntes que um dia foram meu desejo &amp; nunca irão me soltar."</t>
+  </si>
+  <si>
+    <t>「タラララララー ♪」
+「チキチキ ♪」
+「ドナドナドナ～ ♪」
+*ジャン*
+*シャリン*</t>
+  </si>
+  <si>
+    <t>"Peixe, peixe, peixe～ ♪"
+"Vamos comer um pouco de peixe～ ♪"
+"É bom para o seu corpo!"
+"Os peixes estão nos esperando!"
+"Trevally Branco～ ♪"</t>
+  </si>
+  <si>
+    <t>"Fish, fish, fish～ ♪"
+"Let’s eat some fish～ ♪"
+"It’s good for your body!"
+"Fish are waiting for us!"
+"White Trevally～ ♪"</t>
+  </si>
+  <si>
+    <t>「さかなさかなさかな～ ♪」
+「さかなを食べよう～ ♪」
+「体にいいのさ！」
+「魚は私たちを待っている{のだ}」
+「シマアジ～ ♪」</t>
+  </si>
+  <si>
+    <t>「今日のご飯はなんにしよう」
+「ガロクの作品には遊びがないね」
+「暇だぬ」
+「おお、客人かな？」
+「猫 イズ フリ～ダ～ム ♪ 猫 イズ フリ～ダ～ム ♪」</t>
+  </si>
+  <si>
+    <t>「償いなさい」
+「あなたには罰が必要なようですね」
+「てめー ♪」
+「くそがーっ」</t>
+  </si>
+  <si>
+    <t>「地獄に墜ちなさい ♪」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"#onii"
+"#onii"
+"#onii"
+"#onii"
+"#onii"
+"Posso segurar sua mão, #brother2?"
+"O que você quer comer hoje, #brother2?"
+"Sempre estaremos juntos, #brother2 ♪"
+"O que você está fazendo, #brother2?"
+"Eu te amo tanto, #brother2 ♪"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"#onii"
+"#onii"
+"#onii"
+"#onii"
+"#onii"
+"Can I hold your hand, #brother2?"
+"What do you want to eat today, #brother2?"
+"We'll always be together, #brother2 ♪"
+"What are you doing, #brother2?"
+"I love you so much, #brother2 ♪"
+</t>
+  </si>
+  <si>
+    <t>「#onii」
+「#onii」
+「#onii」
+「#onii」
+「#onii」
+「#brother2、手をつないでいい？」
+「#brother2、今日のご飯は何がいい？」
+「ずっと一緒だよ、#brother2 ♪」
+「#brother2、何してるの？」
+「大好きだよ、#brother2 ♪」</t>
+  </si>
+  <si>
+    <t>"Saia da frente, #brother2!"_x000D_
+"Não toque no #brother2!"_x000D_
+"Olhe para mim, #brother2 ♪"</t>
+  </si>
+  <si>
+    <t>"Move over, #brother2!"
+"Don't touch #brother2!"
+"Watch me, #brother2 ♪"</t>
+  </si>
+  <si>
+    <t>「#brother2どいて！」
+「#brother2に触るな！」
+「#brother2、見ててね ♪」</t>
+  </si>
+  <si>
+    <t>"Ah, isso é bom～"
+"Lalala～"
+"Lanlanlan"
+"Ufufu"
+"Ora, ora ♪"
+Você ouve o som da água espirrando.
+Você sente o aroma da fonte termal.</t>
+  </si>
+  <si>
+    <t>"Ah, this is nice～"
+"Lalala～"
+"Lanlanlan"
+"Ufufu"
+"My, my ♪"
+You hear the splashing sound of water.
+You smell the scent of the hot spring.</t>
+  </si>
+  <si>
+    <t>「あ～いいわ～」
+「ラララ～」
+「ランラン」
+「うふふ」
+「あらあら ♪」
+水をパシャパシャする音が聞こえる。
+温泉の香りがする。</t>
+  </si>
+  <si>
+    <t>Aahn ♪</t>
+  </si>
+  <si>
+    <t>"Aahn ♪"</t>
+  </si>
+  <si>
+    <t>「ああん ♪」</t>
+  </si>
+  <si>
+    <t>"Você trouxe isso para si mesmo."_x000D_
+"Bem feito, praga ♪"</t>
+  </si>
+  <si>
+    <t>"You've brought this upon yourself."
+"Serves you right, pest ♪"</t>
+  </si>
+  <si>
+    <t>「自業自得です」
+「ゴミ虫が ♪」</t>
+  </si>
+  <si>
+    <t>「メェェ」
+「メ～」
+「メェエェェェ」
+「メ～ ♪」</t>
+  </si>
+  <si>
+    <t>"Oh Mestre, como posso ajudar você ♪"_x000D_
+Você sente o olhar da empregada sobre você..._x000D_
+"Nossa, tão ocupada!"_x000D_
+"Tudo pronto!"_x000D_
+"#title ♪"</t>
+  </si>
+  <si>
+    <t>"Oh Master, how can I help you ♪"
+You can feel the maid looking at you...
+"Gosh, so busy!"
+"All set!"
+"#title ♪"</t>
+  </si>
+  <si>
+    <t>「用事はありませんか ♪」
+メイドの熱い視線を感じる…
+「ああ、忙しい{よ}！」
+「{よし}」
+「#title様 ♪」</t>
+  </si>
+  <si>
+    <t>"Eu me pergunto qual seria a tradução rúnica disso..."_x000D_
+Você ouve alguém organizando livros nas prateleiras._x000D_
+"Irmã, você fez bagunça de novo!"_x000D_
+"Ta-la-la ♪"</t>
+  </si>
+  <si>
+    <t>"I wonder what the runic translation of this is..."
+You hear someone arranging books on shelves.
+"Sis, you made a mess again!"
+"Ta-la-la ♪"</t>
+  </si>
+  <si>
+    <t>「この文はどういう意味かしら…」
+誰かが本を整理する音が聞こえる。
+「姉さんったら、また散らかして！」
+「ふんふん ♪」</t>
+  </si>
+  <si>
+    <t>"Ah... Que flor bonita!"_x000D_
+"Posso ir com você?"_x000D_
+"Eu quero a capa vermelha da Sandra..."_x000D_
+"Essa é uma flor muito bonita～!"_x000D_
+"Vermelho é minha cor favorita!"_x000D_
+"Minha mãe fez essa coroa de flores para mim."_x000D_
+"La la la～ ♪"</t>
+  </si>
+  <si>
+    <t>"Ah... What a cute flower!"
+"Can I come with you?"
+"I want Sandra's red cape..."
+"That's a pretty flower～!"
+"Red is my favorite color!"
+"My mom made this flower crown for me."
+"La la la～ ♪"</t>
+  </si>
+  <si>
+    <t>「あー…かわいいお花！」
+「ついていっていい？」
+「サンドラさんの赤いケープほしい…」
+「ざっつあぷりちーふらわー」
+「赤って好きな色なの～」
+「この花の冠はお母さんに編んでもらったの」
+「るるる ♪」</t>
+  </si>
+  <si>
+    <t>A jovem tira a poeira das roupas._x000D_
+A jovem olha para você e sorri radiante._x000D_
+Você ficou cativado pela jovem._x000D_
+"Ufufu ♪"</t>
+  </si>
+  <si>
+    <t>The young lady brushes off the dust from her clothes.
+The young lady looks at you and smiles brightly.
+You were captivated by the young lady.
+"Ufufu ♪"</t>
+  </si>
+  <si>
+    <t>嬢は服のほこりをはらった。
+嬢はあなたを見てにっこり笑った。
+あなたは嬢に見とれた。
+「うふふ ♪」</t>
+  </si>
+  <si>
+    <t>"Fraco."_x000D_
+"Fraco?"_x000D_
+"Fra-fra-fraquinho ♪"_x000D_
+"Fraquinho-fraquinho♥"_x000D_
+Você sente que está sendo insultado com uma voz suave._x000D_
+Gaki sorri maliciosamente."</t>
+  </si>
+  <si>
+    <t>"Weakling."
+"Weakling?"
+"Weak-weak-weaaklnig ♪"
+"Weaakling-weaakling♥"
+You feel like you are being insulted in a soft voice.
+Gaki grins wickedly.</t>
+  </si>
+  <si>
+    <t>「ざこ」 
+「ざこ？」
+「ざこざこざーこ ♪」
+「ざぁこざぁこ♥」 
+小声で罵倒されている気がする。
+牙姫はにやりと笑った。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Fraco!!"
+"Fra-fra-fra-fraaco ♪"
+"Fraco! Fraco!"
+"Fraquiiinho♥"
+"Fraaaaaaco."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Weakling!!"
+"Weak-weak-weak-weak-weaakling ♪"
+"Weakling! Weakling!"
+"Weaak-weaakling♥"
+"Weaaaakling."
+</t>
+  </si>
+  <si>
+    <t>「ざこ！！」 
+「ざーこざこざこざっこざこー ♪」
+「ざこっ！ ざこっ！」
+「ざぁこざぁこ♥」
+「ざぁ～こぉ～」</t>
+  </si>
+  <si>
+    <t>"Fraaaaco ♪"_x000D_
+"Fra-fracooo♥"_x000D_
+"Fraco-fraco-fraco-fraco-fraco-fraco-fraco-fracooo."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Weaaaaakling ♪"
+"Weaak-weaakling♥"
+"Weak-weak-weak-weak-weak-weak-weak-weakling."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ざっっっっっっっっっっこ ♪」
+「ざぁこざぁこ♥」
+「ざこざこざこざこざこざこざこざこ」 </t>
   </si>
 </sst>
 </file>
@@ -4498,8 +4498,8 @@
   <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4510,7 +4510,7 @@
     <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="113.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="92.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="105.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="142.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="121.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="16" customWidth="1" collapsed="1"/>
@@ -4579,10 +4579,10 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -4591,7 +4591,7 @@
         <v>19</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>691</v>
+        <v>655</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
@@ -4600,7 +4600,7 @@
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>746</v>
+        <v>708</v>
       </c>
       <c r="P3" t="s">
         <v>22</v>
@@ -4614,7 +4614,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -4635,7 +4635,7 @@
         <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
       <c r="M4" t="s">
         <v>27</v>
@@ -4644,15 +4644,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>791</v>
+        <v>737</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -4661,15 +4661,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>792</v>
+        <v>738</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -4687,7 +4687,7 @@
         <v>36</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>747</v>
+        <v>709</v>
       </c>
       <c r="P6" t="s">
         <v>37</v>
@@ -4701,3475 +4701,3475 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="M7" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>44</v>
       </c>
-      <c r="N7" t="s">
+    </row>
+    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" t="s">
         <v>49</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="M8" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>51</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
+        <v>710</v>
+      </c>
+      <c r="P8" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
-        <v>748</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>53</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="M9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>60</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="P9" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" t="s">
+    </row>
+    <row r="10" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
-        <v>621</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>65</v>
       </c>
-      <c r="E10" t="s">
+      <c r="K10" t="s">
         <v>66</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" t="s">
         <v>67</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
-        <v>625</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>71</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="J11" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>73</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>660</v>
+      </c>
+      <c r="M11" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
-        <v>696</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>75</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="P11" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>77</v>
       </c>
-      <c r="Q11" t="s">
+    </row>
+    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>593</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="B12" t="s">
-        <v>626</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>80</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J12" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>82</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>661</v>
+      </c>
+      <c r="M12" t="s">
         <v>83</v>
       </c>
-      <c r="L12" t="s">
-        <v>697</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>84</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
+        <v>713</v>
+      </c>
+      <c r="P12" t="s">
         <v>85</v>
       </c>
-      <c r="O12" t="s">
-        <v>751</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>86</v>
       </c>
-      <c r="Q12" t="s">
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>590</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>623</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>89</v>
       </c>
-      <c r="E13" t="s">
+      <c r="K13" t="s">
         <v>90</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>662</v>
+      </c>
+      <c r="M13" t="s">
         <v>91</v>
       </c>
-      <c r="L13" t="s">
-        <v>698</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>92</v>
-      </c>
-      <c r="N13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D14" t="s">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
-        <v>624</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>95</v>
       </c>
-      <c r="E14" t="s">
+      <c r="I14" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="J14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" t="s">
         <v>97</v>
       </c>
-      <c r="L14" t="s">
-        <v>696</v>
-      </c>
-      <c r="M14" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="P14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="P14" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" t="s">
+    </row>
+    <row r="15" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="E15" t="s">
         <v>100</v>
       </c>
-      <c r="B15" t="s">
-        <v>627</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="L15" t="s">
         <v>101</v>
       </c>
-      <c r="E15" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" t="s">
-        <v>103</v>
-      </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>595</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
-        <v>628</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="L16" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="M16" t="s">
         <v>105</v>
       </c>
-      <c r="K16" t="s">
+      <c r="N16" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
+        <v>714</v>
+      </c>
+      <c r="P16" t="s">
         <v>107</v>
       </c>
-      <c r="N16" t="s">
+      <c r="Q16" t="s">
         <v>108</v>
-      </c>
-      <c r="O16" t="s">
-        <v>752</v>
-      </c>
-      <c r="P16" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>596</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" t="s">
-        <v>629</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" t="s">
-        <v>113</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="M17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>588</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="J18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" t="s">
         <v>114</v>
       </c>
-      <c r="B18" t="s">
-        <v>621</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="L18" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="M18" t="s">
         <v>115</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N18" t="s">
         <v>116</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
+        <v>715</v>
+      </c>
+      <c r="P18" t="s">
         <v>117</v>
       </c>
-      <c r="N18" t="s">
+      <c r="Q18" t="s">
         <v>118</v>
-      </c>
-      <c r="O18" t="s">
-        <v>753</v>
-      </c>
-      <c r="P18" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>595</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="J19" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="M19" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" t="s">
         <v>121</v>
       </c>
-      <c r="B19" t="s">
-        <v>628</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="J19" t="s">
-        <v>115</v>
-      </c>
-      <c r="K19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
+        <v>716</v>
+      </c>
+      <c r="P19" t="s">
         <v>122</v>
       </c>
-      <c r="N19" t="s">
+      <c r="Q19" t="s">
         <v>123</v>
-      </c>
-      <c r="O19" t="s">
-        <v>754</v>
-      </c>
-      <c r="P19" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>588</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
         <v>126</v>
       </c>
-      <c r="B20" t="s">
-        <v>621</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="I20" t="s">
+        <v>622</v>
+      </c>
+      <c r="J20" t="s">
         <v>127</v>
       </c>
-      <c r="E20" t="s">
+      <c r="K20" t="s">
         <v>128</v>
       </c>
-      <c r="I20" t="s">
-        <v>655</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
+        <v>815</v>
+      </c>
+      <c r="M20" t="s">
         <v>129</v>
       </c>
-      <c r="K20" t="s">
+      <c r="N20" t="s">
         <v>130</v>
       </c>
-      <c r="L20" t="s">
-        <v>702</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
+        <v>717</v>
+      </c>
+      <c r="P20" t="s">
         <v>131</v>
       </c>
-      <c r="N20" t="s">
+      <c r="Q20" t="s">
         <v>132</v>
-      </c>
-      <c r="O20" t="s">
-        <v>755</v>
-      </c>
-      <c r="P20" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>588</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="J21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" t="s">
         <v>135</v>
       </c>
-      <c r="B21" t="s">
-        <v>621</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="L21" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="M21" t="s">
         <v>136</v>
       </c>
-      <c r="K21" t="s">
+      <c r="N21" t="s">
         <v>137</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="O21" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="P21" t="s">
         <v>138</v>
       </c>
-      <c r="N21" t="s">
+      <c r="Q21" t="s">
         <v>139</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="P21" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>588</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="J22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" t="s">
         <v>142</v>
       </c>
-      <c r="B22" t="s">
-        <v>621</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="L22" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="M22" t="s">
         <v>143</v>
       </c>
-      <c r="K22" t="s">
+      <c r="N22" t="s">
         <v>144</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
+        <v>719</v>
+      </c>
+      <c r="P22" t="s">
         <v>145</v>
       </c>
-      <c r="N22" t="s">
+      <c r="Q22" t="s">
         <v>146</v>
-      </c>
-      <c r="O22" t="s">
-        <v>757</v>
-      </c>
-      <c r="P22" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>592</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" t="s">
         <v>149</v>
-      </c>
-      <c r="B23" t="s">
-        <v>625</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="D23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>588</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
         <v>152</v>
       </c>
-      <c r="B24" t="s">
-        <v>621</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="I24" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="J24" t="s">
         <v>153</v>
       </c>
-      <c r="E24" t="s">
+      <c r="K24" t="s">
         <v>154</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
+        <v>668</v>
+      </c>
+      <c r="M24" t="s">
         <v>155</v>
       </c>
-      <c r="K24" t="s">
+      <c r="N24" t="s">
         <v>156</v>
       </c>
-      <c r="L24" t="s">
-        <v>705</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>157</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q24" t="s">
         <v>158</v>
-      </c>
-      <c r="O24" t="s">
-        <v>159</v>
-      </c>
-      <c r="P24" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>588</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="J25" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" t="s">
         <v>161</v>
       </c>
-      <c r="B25" t="s">
-        <v>621</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>162</v>
       </c>
-      <c r="K25" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" t="s">
-        <v>164</v>
-      </c>
       <c r="M25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" t="s">
+        <v>588</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" t="s">
         <v>165</v>
       </c>
-      <c r="B26" t="s">
-        <v>621</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="L26" t="s">
+        <v>669</v>
+      </c>
+      <c r="M26" t="s">
         <v>166</v>
       </c>
-      <c r="E26" t="s">
+      <c r="N26" t="s">
         <v>167</v>
       </c>
-      <c r="L26" t="s">
-        <v>706</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
+        <v>720</v>
+      </c>
+      <c r="P26" t="s">
         <v>168</v>
       </c>
-      <c r="N26" t="s">
+      <c r="Q26" t="s">
         <v>169</v>
-      </c>
-      <c r="O26" t="s">
-        <v>758</v>
-      </c>
-      <c r="P26" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>588</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="J27" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" t="s">
         <v>172</v>
       </c>
-      <c r="B27" t="s">
-        <v>621</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
+        <v>670</v>
+      </c>
+      <c r="M27" t="s">
         <v>173</v>
       </c>
-      <c r="K27" t="s">
+      <c r="N27" t="s">
         <v>174</v>
       </c>
-      <c r="L27" t="s">
-        <v>707</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="O27" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="P27" t="s">
         <v>175</v>
       </c>
-      <c r="N27" t="s">
+      <c r="Q27" t="s">
         <v>176</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="P27" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" t="s">
+        <v>597</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" t="s">
         <v>179</v>
       </c>
-      <c r="B28" t="s">
-        <v>630</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="I28" t="s">
+        <v>629</v>
+      </c>
+      <c r="J28" t="s">
         <v>180</v>
       </c>
-      <c r="E28" t="s">
+      <c r="K28" t="s">
         <v>181</v>
       </c>
-      <c r="I28" t="s">
-        <v>662</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
+        <v>671</v>
+      </c>
+      <c r="M28" t="s">
         <v>182</v>
       </c>
-      <c r="K28" t="s">
+      <c r="N28" t="s">
         <v>183</v>
       </c>
-      <c r="L28" t="s">
-        <v>708</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
+        <v>722</v>
+      </c>
+      <c r="P28" t="s">
         <v>184</v>
       </c>
-      <c r="N28" t="s">
+      <c r="Q28" t="s">
         <v>185</v>
-      </c>
-      <c r="O28" t="s">
-        <v>760</v>
-      </c>
-      <c r="P28" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" t="s">
+        <v>598</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
         <v>188</v>
       </c>
-      <c r="B29" t="s">
-        <v>631</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="D29" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" t="s">
-        <v>190</v>
-      </c>
       <c r="I29" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="J29" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29" t="s">
+        <v>671</v>
+      </c>
+      <c r="M29" t="s">
         <v>182</v>
       </c>
-      <c r="K29" t="s">
+      <c r="N29" t="s">
         <v>183</v>
       </c>
-      <c r="L29" t="s">
-        <v>708</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="O29" t="s">
+        <v>722</v>
+      </c>
+      <c r="P29" t="s">
         <v>184</v>
       </c>
-      <c r="N29" t="s">
+      <c r="Q29" t="s">
         <v>185</v>
-      </c>
-      <c r="O29" t="s">
-        <v>760</v>
-      </c>
-      <c r="P29" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" t="s">
+        <v>598</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" t="s">
         <v>191</v>
       </c>
-      <c r="B30" t="s">
-        <v>631</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="D30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" t="s">
-        <v>193</v>
-      </c>
       <c r="I30" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="J30" t="s">
+        <v>180</v>
+      </c>
+      <c r="K30" t="s">
+        <v>181</v>
+      </c>
+      <c r="L30" t="s">
+        <v>671</v>
+      </c>
+      <c r="M30" t="s">
         <v>182</v>
       </c>
-      <c r="K30" t="s">
+      <c r="N30" t="s">
         <v>183</v>
       </c>
-      <c r="L30" t="s">
-        <v>708</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="O30" t="s">
+        <v>722</v>
+      </c>
+      <c r="P30" t="s">
         <v>184</v>
       </c>
-      <c r="N30" t="s">
+      <c r="Q30" t="s">
         <v>185</v>
-      </c>
-      <c r="O30" t="s">
-        <v>760</v>
-      </c>
-      <c r="P30" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" t="s">
+        <v>598</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" t="s">
         <v>194</v>
       </c>
-      <c r="B31" t="s">
-        <v>631</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="I31" t="s">
+        <v>630</v>
+      </c>
+      <c r="J31" t="s">
         <v>195</v>
       </c>
-      <c r="E31" t="s">
+      <c r="K31" t="s">
         <v>196</v>
       </c>
-      <c r="I31" t="s">
-        <v>663</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
+        <v>672</v>
+      </c>
+      <c r="M31" t="s">
         <v>197</v>
       </c>
-      <c r="K31" t="s">
+      <c r="N31" t="s">
         <v>198</v>
       </c>
-      <c r="L31" t="s">
-        <v>709</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
+        <v>723</v>
+      </c>
+      <c r="P31" t="s">
         <v>199</v>
       </c>
-      <c r="N31" t="s">
+      <c r="Q31" t="s">
         <v>200</v>
-      </c>
-      <c r="O31" t="s">
-        <v>761</v>
-      </c>
-      <c r="P31" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>588</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D32" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" t="s">
         <v>203</v>
-      </c>
-      <c r="B32" t="s">
-        <v>621</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D32" t="s">
-        <v>204</v>
-      </c>
-      <c r="E32" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" t="s">
+        <v>589</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="M33" t="s">
+        <v>205</v>
+      </c>
+      <c r="N33" t="s">
         <v>206</v>
       </c>
-      <c r="B33" t="s">
-        <v>622</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="O33" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="P33" t="s">
         <v>207</v>
       </c>
-      <c r="N33" t="s">
+      <c r="Q33" t="s">
         <v>208</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="P33" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" t="s">
+        <v>588</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="J34" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" t="s">
         <v>211</v>
       </c>
-      <c r="B34" t="s">
-        <v>621</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="L34" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="M34" t="s">
         <v>212</v>
       </c>
-      <c r="K34" t="s">
+      <c r="N34" t="s">
         <v>213</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="O34" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="P34" t="s">
         <v>214</v>
       </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
         <v>215</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="P34" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" t="s">
+        <v>588</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" t="s">
         <v>218</v>
       </c>
-      <c r="B35" t="s">
-        <v>621</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="I35" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="J35" t="s">
         <v>219</v>
       </c>
-      <c r="H35" t="s">
+      <c r="K35" t="s">
         <v>220</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="L35" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="M35" t="s">
         <v>221</v>
       </c>
-      <c r="K35" t="s">
+      <c r="N35" t="s">
         <v>222</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="O35" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="P35" t="s">
         <v>223</v>
       </c>
-      <c r="N35" t="s">
+      <c r="Q35" t="s">
         <v>224</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="P35" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E36" t="s">
-        <v>229</v>
+        <v>834</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>836</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" t="s">
+        <v>600</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E37" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H37" t="s">
         <v>231</v>
       </c>
-      <c r="B37" t="s">
+      <c r="I37" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D37" t="s">
-        <v>232</v>
-      </c>
-      <c r="E37" t="s">
-        <v>233</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H37" t="s">
-        <v>235</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="J37" t="s">
+        <v>219</v>
+      </c>
+      <c r="K37" t="s">
+        <v>220</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="M37" t="s">
         <v>221</v>
       </c>
-      <c r="K37" t="s">
+      <c r="N37" t="s">
         <v>222</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="O37" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="P37" t="s">
         <v>223</v>
       </c>
-      <c r="N37" t="s">
+      <c r="Q37" t="s">
         <v>224</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="P37" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B38" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>813</v>
+        <v>756</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
-      </c>
-      <c r="E38" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" t="s">
+        <v>592</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" t="s">
+        <v>237</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="J40" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" t="s">
         <v>239</v>
       </c>
-      <c r="B39" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="L40" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="M40" t="s">
         <v>240</v>
       </c>
-      <c r="B40" t="s">
-        <v>625</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="N40" t="s">
         <v>241</v>
       </c>
-      <c r="E40" t="s">
+      <c r="O40" t="s">
+        <v>725</v>
+      </c>
+      <c r="P40" t="s">
         <v>242</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="Q40" t="s">
         <v>243</v>
-      </c>
-      <c r="K40" t="s">
-        <v>244</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="M40" t="s">
-        <v>245</v>
-      </c>
-      <c r="N40" t="s">
-        <v>246</v>
-      </c>
-      <c r="O40" t="s">
-        <v>765</v>
-      </c>
-      <c r="P40" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" t="s">
+        <v>588</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D41" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="J41" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="L41" t="s">
+        <v>677</v>
+      </c>
+      <c r="M41" t="s">
+        <v>248</v>
+      </c>
+      <c r="N41" t="s">
         <v>249</v>
       </c>
-      <c r="B41" t="s">
-        <v>621</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="O41" t="s">
+        <v>726</v>
+      </c>
+      <c r="P41" t="s">
         <v>250</v>
       </c>
-      <c r="E41" t="s">
-        <v>251</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="J41" t="s">
-        <v>252</v>
-      </c>
-      <c r="K41" t="s">
-        <v>253</v>
-      </c>
-      <c r="L41" t="s">
-        <v>714</v>
-      </c>
-      <c r="M41" t="s">
-        <v>254</v>
-      </c>
-      <c r="N41" t="s">
-        <v>255</v>
-      </c>
-      <c r="O41" t="s">
-        <v>766</v>
-      </c>
-      <c r="P41" t="s">
-        <v>256</v>
-      </c>
       <c r="Q41" t="s">
-        <v>257</v>
+        <v>839</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B42" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="J42" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K42" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>715</v>
+        <v>678</v>
       </c>
       <c r="M42" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="N42" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Q42" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B43" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="J43" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K43" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>716</v>
+        <v>679</v>
       </c>
       <c r="M43" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="N43" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="O43" t="s">
-        <v>767</v>
+        <v>727</v>
       </c>
       <c r="P43" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q43" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B44" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>717</v>
+        <v>680</v>
       </c>
       <c r="M44" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="N44" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>768</v>
+        <v>728</v>
       </c>
       <c r="P44" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q44" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="C45" t="s">
-        <v>816</v>
+        <v>759</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E45" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L45" t="s">
-        <v>718</v>
+        <v>681</v>
       </c>
       <c r="M45" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="N45" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>769</v>
+        <v>729</v>
       </c>
       <c r="P45" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q45" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E46" t="s">
-        <v>285</v>
+        <v>841</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>842</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="J46" t="s">
-        <v>286</v>
-      </c>
-      <c r="K46" t="s">
-        <v>287</v>
+        <v>843</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>845</v>
       </c>
       <c r="L46" t="s">
-        <v>719</v>
+        <v>682</v>
       </c>
       <c r="M46" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="N46" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>769</v>
+        <v>729</v>
       </c>
       <c r="P46" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q46" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>279</v>
+      </c>
+      <c r="B47" t="s">
+        <v>588</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D47" t="s">
+        <v>280</v>
+      </c>
+      <c r="E47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="J47" t="s">
+        <v>282</v>
+      </c>
+      <c r="K47" t="s">
+        <v>283</v>
+      </c>
+      <c r="L47" t="s">
+        <v>683</v>
+      </c>
+      <c r="M47" t="s">
+        <v>284</v>
+      </c>
+      <c r="N47" t="s">
+        <v>285</v>
+      </c>
+      <c r="O47" t="s">
+        <v>730</v>
+      </c>
+      <c r="P47" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" t="s">
+        <v>592</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D48" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48" t="s">
         <v>290</v>
       </c>
-      <c r="B47" t="s">
-        <v>621</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="I48" t="s">
+        <v>639</v>
+      </c>
+      <c r="J48" t="s">
         <v>291</v>
       </c>
-      <c r="E47" t="s">
+      <c r="K48" t="s">
         <v>292</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="L48" t="s">
+        <v>684</v>
+      </c>
+      <c r="M48" t="s">
         <v>293</v>
       </c>
-      <c r="K47" t="s">
+      <c r="N48" t="s">
         <v>294</v>
       </c>
-      <c r="L47" t="s">
-        <v>720</v>
-      </c>
-      <c r="M47" t="s">
-        <v>295</v>
-      </c>
-      <c r="N47" t="s">
-        <v>296</v>
-      </c>
-      <c r="O47" t="s">
-        <v>770</v>
-      </c>
-      <c r="P47" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>299</v>
-      </c>
-      <c r="B48" t="s">
-        <v>625</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E48" t="s">
-        <v>301</v>
-      </c>
-      <c r="I48" t="s">
-        <v>673</v>
-      </c>
-      <c r="J48" t="s">
-        <v>302</v>
-      </c>
-      <c r="K48" t="s">
-        <v>303</v>
-      </c>
-      <c r="L48" t="s">
-        <v>721</v>
-      </c>
-      <c r="M48" t="s">
-        <v>304</v>
-      </c>
-      <c r="N48" t="s">
-        <v>305</v>
-      </c>
       <c r="O48" t="s">
-        <v>721</v>
+        <v>684</v>
       </c>
       <c r="P48" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="Q48" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
       <c r="J49" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="K49" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>722</v>
+        <v>685</v>
       </c>
       <c r="M49" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="N49" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="O49" t="s">
-        <v>771</v>
+        <v>731</v>
       </c>
       <c r="P49" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Q49" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>827</v>
+        <v>768</v>
       </c>
       <c r="D50" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E50" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I50" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J50" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="K50" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L50" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M50" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="N50" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="O50" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P50" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="Q50" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>826</v>
+        <v>767</v>
       </c>
       <c r="D51" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E51" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="I51" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J51" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="K51" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L51" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M51" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="N51" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="O51" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P51" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="Q51" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B52" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>825</v>
+        <v>766</v>
       </c>
       <c r="D52" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E52" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="I52" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J52" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="K52" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L52" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M52" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="N52" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="O52" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P52" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="Q52" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B53" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>824</v>
+        <v>765</v>
       </c>
       <c r="D53" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E53" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="I53" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J53" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="K53" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L53" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M53" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="N53" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="O53" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P53" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="Q53" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B54" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="D54" t="s">
-        <v>327</v>
-      </c>
-      <c r="E54" t="s">
-        <v>328</v>
+        <v>846</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>848</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="J54" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K54" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L54" t="s">
-        <v>723</v>
+        <v>849</v>
       </c>
       <c r="M54" t="s">
-        <v>331</v>
+        <v>850</v>
       </c>
       <c r="N54" t="s">
-        <v>332</v>
+        <v>851</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="P54" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>334</v>
+        <v>852</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B55" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>676</v>
+        <v>642</v>
       </c>
       <c r="J55" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="K55" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="L55" t="s">
-        <v>724</v>
+        <v>686</v>
       </c>
       <c r="M55" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="N55" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="O55" t="s">
-        <v>773</v>
+        <v>732</v>
       </c>
       <c r="P55" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="Q55" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>822</v>
+        <v>764</v>
       </c>
       <c r="D56" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="E56" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="I56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B57" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>820</v>
+        <v>762</v>
       </c>
       <c r="D57" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="E57" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>866</v>
+        <v>802</v>
       </c>
       <c r="G57" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H57" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="I57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B58" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>821</v>
+        <v>763</v>
       </c>
       <c r="D58" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="E58" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="K58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B59" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>867</v>
+        <v>803</v>
       </c>
       <c r="G59" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="H59" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="I59" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="J59" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="K59" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="L59" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="M59" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="N59" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="O59" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="P59" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="Q59" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B60" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="E60" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>868</v>
+        <v>804</v>
       </c>
       <c r="G60" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="H60" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="I60" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J60" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K60" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L60" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M60" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N60" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O60" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P60" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q60" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B61" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>869</v>
+        <v>805</v>
       </c>
       <c r="G61" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="H61" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="I61" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="J61" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="K61" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="L61" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="M61" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="N61" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="O61" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="P61" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="Q61" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>349</v>
+      </c>
+      <c r="B62" t="s">
+        <v>605</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D62" t="s">
+        <v>350</v>
+      </c>
+      <c r="E62" t="s">
+        <v>351</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="J62" t="s">
+        <v>352</v>
+      </c>
+      <c r="K62" t="s">
+        <v>353</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="M62" t="s">
+        <v>354</v>
+      </c>
+      <c r="N62" t="s">
+        <v>355</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="P62" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B63" t="s">
+        <v>592</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D63" t="s">
+        <v>359</v>
+      </c>
+      <c r="E63" t="s">
+        <v>360</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="J63" t="s">
+        <v>361</v>
+      </c>
+      <c r="K63" t="s">
+        <v>362</v>
+      </c>
+      <c r="L63" t="s">
+        <v>688</v>
+      </c>
+      <c r="M63" t="s">
+        <v>363</v>
+      </c>
+      <c r="N63" t="s">
+        <v>364</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="P63" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q63" t="s">
         <v>366</v>
-      </c>
-      <c r="B62" t="s">
-        <v>638</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="D62" t="s">
-        <v>367</v>
-      </c>
-      <c r="E62" t="s">
-        <v>368</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="J62" t="s">
-        <v>369</v>
-      </c>
-      <c r="K62" t="s">
-        <v>370</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="M62" t="s">
-        <v>371</v>
-      </c>
-      <c r="N62" t="s">
-        <v>372</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="P62" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>375</v>
-      </c>
-      <c r="B63" t="s">
-        <v>625</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="D63" t="s">
-        <v>376</v>
-      </c>
-      <c r="E63" t="s">
-        <v>377</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="J63" t="s">
-        <v>378</v>
-      </c>
-      <c r="K63" t="s">
-        <v>379</v>
-      </c>
-      <c r="L63" t="s">
-        <v>726</v>
-      </c>
-      <c r="M63" t="s">
-        <v>380</v>
-      </c>
-      <c r="N63" t="s">
-        <v>381</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="P63" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="240" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="B64" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>831</v>
+        <v>771</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="E64" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>679</v>
+        <v>645</v>
       </c>
       <c r="J64" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="K64" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="L64" t="s">
-        <v>727</v>
+        <v>689</v>
       </c>
       <c r="M64" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="N64" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="O64" t="s">
-        <v>776</v>
+        <v>821</v>
       </c>
       <c r="P64" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="Q64" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="B65" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>870</v>
+        <v>806</v>
       </c>
       <c r="G65" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="H65" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="B66" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>871</v>
+        <v>807</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="H66" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="I66" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J66" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K66" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L66" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M66" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N66" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O66" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q66" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>382</v>
+      </c>
+      <c r="B67" t="s">
+        <v>606</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D67" t="s">
+        <v>383</v>
+      </c>
+      <c r="E67" t="s">
+        <v>384</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="J67" t="s">
+        <v>385</v>
+      </c>
+      <c r="K67" t="s">
+        <v>386</v>
+      </c>
+      <c r="L67" t="s">
+        <v>690</v>
+      </c>
+      <c r="M67" t="s">
+        <v>387</v>
+      </c>
+      <c r="N67" t="s">
+        <v>388</v>
+      </c>
+      <c r="O67" t="s">
+        <v>822</v>
+      </c>
+      <c r="P67" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>391</v>
+      </c>
+      <c r="B68" t="s">
+        <v>588</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D68" t="s">
+        <v>392</v>
+      </c>
+      <c r="E68" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>394</v>
+      </c>
+      <c r="B69" t="s">
+        <v>592</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D69" t="s">
+        <v>395</v>
+      </c>
+      <c r="E69" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>397</v>
+      </c>
+      <c r="B70" t="s">
+        <v>588</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D70" t="s">
+        <v>398</v>
+      </c>
+      <c r="E70" t="s">
         <v>399</v>
       </c>
-      <c r="B67" t="s">
-        <v>639</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="71" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>400</v>
       </c>
-      <c r="E67" t="s">
+      <c r="B71" t="s">
+        <v>588</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D71" t="s">
         <v>401</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="E71" t="s">
         <v>402</v>
-      </c>
-      <c r="K67" t="s">
-        <v>403</v>
-      </c>
-      <c r="L67" t="s">
-        <v>728</v>
-      </c>
-      <c r="M67" t="s">
-        <v>404</v>
-      </c>
-      <c r="N67" t="s">
-        <v>405</v>
-      </c>
-      <c r="O67" t="s">
-        <v>777</v>
-      </c>
-      <c r="P67" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>408</v>
-      </c>
-      <c r="B68" t="s">
-        <v>621</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="D68" t="s">
-        <v>409</v>
-      </c>
-      <c r="E68" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>411</v>
-      </c>
-      <c r="B69" t="s">
-        <v>625</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="D69" t="s">
-        <v>412</v>
-      </c>
-      <c r="E69" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>414</v>
-      </c>
-      <c r="B70" t="s">
-        <v>621</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="D70" t="s">
-        <v>415</v>
-      </c>
-      <c r="E70" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>417</v>
-      </c>
-      <c r="B71" t="s">
-        <v>621</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="D71" t="s">
-        <v>418</v>
-      </c>
-      <c r="E71" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="B72" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="E72" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="K72" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B73" t="s">
-        <v>621</v>
-      </c>
-      <c r="E73" t="s">
-        <v>424</v>
+        <v>588</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="K73" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B74" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="E74" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="K74" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="N74" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="O74" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="P74" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="Q74" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B75" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>837</v>
+        <v>777</v>
       </c>
       <c r="D75" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E75" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="K75" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="N75" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="O75" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="P75" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="Q75" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="B76" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="L76" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M76" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N76" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B77" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="C77" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="D77" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="E77" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B78" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>838</v>
+        <v>778</v>
       </c>
       <c r="D78" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E78" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B79" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>839</v>
+        <v>779</v>
       </c>
       <c r="D79" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="E79" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="L79" t="s">
-        <v>729</v>
+        <v>691</v>
       </c>
       <c r="M79" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="N79" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="B80" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="C80" t="s">
-        <v>840</v>
+        <v>780</v>
       </c>
       <c r="D80" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="E80" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="L80" t="s">
-        <v>730</v>
+        <v>692</v>
       </c>
       <c r="M80" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="N80" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>438</v>
+      </c>
+      <c r="B81" t="s">
+        <v>588</v>
+      </c>
+      <c r="E81" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>440</v>
+      </c>
+      <c r="B82" t="s">
+        <v>588</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="K82" t="s">
+        <v>441</v>
+      </c>
+      <c r="N82" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>442</v>
+      </c>
+      <c r="B83" t="s">
+        <v>588</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="J83" t="s">
+        <v>443</v>
+      </c>
+      <c r="K83" t="s">
+        <v>444</v>
+      </c>
+      <c r="L83" t="s">
+        <v>693</v>
+      </c>
+      <c r="M83" t="s">
+        <v>445</v>
+      </c>
+      <c r="N83" t="s">
+        <v>446</v>
+      </c>
+      <c r="O83" t="s">
+        <v>823</v>
+      </c>
+      <c r="P83" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>449</v>
+      </c>
+      <c r="B84" t="s">
+        <v>592</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D84" t="s">
+        <v>450</v>
+      </c>
+      <c r="E84" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>452</v>
+      </c>
+      <c r="B85" t="s">
+        <v>600</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="L85" t="s">
+        <v>694</v>
+      </c>
+      <c r="M85" t="s">
+        <v>453</v>
+      </c>
+      <c r="N85" t="s">
+        <v>454</v>
+      </c>
+      <c r="O85" t="s">
+        <v>824</v>
+      </c>
+      <c r="P85" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q85" t="s">
         <v>456</v>
-      </c>
-      <c r="B81" t="s">
-        <v>621</v>
-      </c>
-      <c r="E81" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>458</v>
-      </c>
-      <c r="B82" t="s">
-        <v>621</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="D82" t="s">
-        <v>459</v>
-      </c>
-      <c r="E82" t="s">
-        <v>460</v>
-      </c>
-      <c r="K82" t="s">
-        <v>461</v>
-      </c>
-      <c r="N82" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>462</v>
-      </c>
-      <c r="B83" t="s">
-        <v>621</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="D83" t="s">
-        <v>463</v>
-      </c>
-      <c r="E83" t="s">
-        <v>464</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="J83" t="s">
-        <v>465</v>
-      </c>
-      <c r="K83" t="s">
-        <v>466</v>
-      </c>
-      <c r="L83" t="s">
-        <v>731</v>
-      </c>
-      <c r="M83" t="s">
-        <v>467</v>
-      </c>
-      <c r="N83" t="s">
-        <v>468</v>
-      </c>
-      <c r="O83" t="s">
-        <v>778</v>
-      </c>
-      <c r="P83" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>471</v>
-      </c>
-      <c r="B84" t="s">
-        <v>625</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="D84" t="s">
-        <v>472</v>
-      </c>
-      <c r="E84" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>474</v>
-      </c>
-      <c r="B85" t="s">
-        <v>633</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="D85" t="s">
-        <v>475</v>
-      </c>
-      <c r="E85" t="s">
-        <v>476</v>
-      </c>
-      <c r="L85" t="s">
-        <v>732</v>
-      </c>
-      <c r="M85" t="s">
-        <v>477</v>
-      </c>
-      <c r="N85" t="s">
-        <v>478</v>
-      </c>
-      <c r="O85" t="s">
-        <v>779</v>
-      </c>
-      <c r="P85" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="B86" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="M86" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="N86" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="P86" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="B87" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>872</v>
+        <v>808</v>
       </c>
       <c r="G87" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="H87" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="I87" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J87" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K87" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L87" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M87" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N87" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O87" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q87" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="B88" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="C88" t="s">
-        <v>845</v>
+        <v>782</v>
       </c>
       <c r="D88" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="E88" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="F88" t="s">
-        <v>873</v>
+        <v>809</v>
       </c>
       <c r="G88" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="H88" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="B89" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="C89" t="s">
-        <v>846</v>
+        <v>783</v>
       </c>
       <c r="D89" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="E89" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="F89" t="s">
-        <v>874</v>
+        <v>810</v>
       </c>
       <c r="G89" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="H89" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="B90" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="C90" t="s">
-        <v>847</v>
+        <v>784</v>
       </c>
       <c r="D90" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="E90" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="F90" t="s">
-        <v>875</v>
+        <v>811</v>
       </c>
       <c r="G90" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="H90" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>476</v>
+      </c>
+      <c r="B91" t="s">
+        <v>608</v>
+      </c>
+      <c r="I91" t="s">
+        <v>648</v>
+      </c>
+      <c r="J91" t="s">
+        <v>477</v>
+      </c>
+      <c r="K91" t="s">
+        <v>478</v>
+      </c>
+      <c r="L91" t="s">
+        <v>697</v>
+      </c>
+      <c r="M91" t="s">
+        <v>479</v>
+      </c>
+      <c r="N91" t="s">
+        <v>480</v>
+      </c>
+      <c r="O91" t="s">
+        <v>733</v>
+      </c>
+      <c r="P91" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>483</v>
+      </c>
+      <c r="B92" t="s">
+        <v>588</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D92" t="s">
+        <v>484</v>
+      </c>
+      <c r="E92" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>486</v>
+      </c>
+      <c r="B93" t="s">
+        <v>588</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D93" t="s">
+        <v>487</v>
+      </c>
+      <c r="E93" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>489</v>
+      </c>
+      <c r="B94" t="s">
+        <v>588</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D94" t="s">
+        <v>490</v>
+      </c>
+      <c r="E94" t="s">
+        <v>491</v>
+      </c>
+      <c r="F94" t="s">
+        <v>825</v>
+      </c>
+      <c r="G94" t="s">
+        <v>492</v>
+      </c>
+      <c r="H94" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>494</v>
+      </c>
+      <c r="B95" t="s">
+        <v>591</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="E95" t="s">
+        <v>495</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="J95" t="s">
+        <v>496</v>
+      </c>
+      <c r="K95" t="s">
+        <v>497</v>
+      </c>
+      <c r="L95" t="s">
+        <v>498</v>
+      </c>
+      <c r="M95" t="s">
+        <v>498</v>
+      </c>
+      <c r="N95" t="s">
+        <v>499</v>
+      </c>
+      <c r="O95" t="s">
+        <v>734</v>
+      </c>
+      <c r="P95" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>502</v>
       </c>
-      <c r="B91" t="s">
-        <v>641</v>
-      </c>
-      <c r="I91" t="s">
-        <v>682</v>
-      </c>
-      <c r="J91" t="s">
+      <c r="B96" t="s">
+        <v>588</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D96" t="s">
         <v>503</v>
       </c>
-      <c r="K91" t="s">
+      <c r="E96" t="s">
         <v>504</v>
       </c>
-      <c r="L91" t="s">
-        <v>735</v>
-      </c>
-      <c r="M91" t="s">
+    </row>
+    <row r="97" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>505</v>
       </c>
-      <c r="N91" t="s">
+      <c r="B97" t="s">
+        <v>609</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D97" t="s">
         <v>506</v>
       </c>
-      <c r="O91" t="s">
-        <v>781</v>
-      </c>
-      <c r="P91" t="s">
+      <c r="E97" t="s">
         <v>507</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>509</v>
-      </c>
-      <c r="B92" t="s">
-        <v>621</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="D92" t="s">
-        <v>510</v>
-      </c>
-      <c r="E92" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>512</v>
-      </c>
-      <c r="B93" t="s">
-        <v>621</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="D93" t="s">
-        <v>513</v>
-      </c>
-      <c r="E93" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>515</v>
-      </c>
-      <c r="B94" t="s">
-        <v>621</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="D94" t="s">
-        <v>516</v>
-      </c>
-      <c r="E94" t="s">
-        <v>517</v>
-      </c>
-      <c r="F94" t="s">
-        <v>876</v>
-      </c>
-      <c r="G94" t="s">
-        <v>518</v>
-      </c>
-      <c r="H94" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>520</v>
-      </c>
-      <c r="B95" t="s">
-        <v>624</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="D95" t="s">
-        <v>521</v>
-      </c>
-      <c r="E95" t="s">
-        <v>522</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="J95" t="s">
-        <v>523</v>
-      </c>
-      <c r="K95" t="s">
-        <v>524</v>
-      </c>
-      <c r="L95" t="s">
-        <v>525</v>
-      </c>
-      <c r="M95" t="s">
-        <v>525</v>
-      </c>
-      <c r="N95" t="s">
-        <v>526</v>
-      </c>
-      <c r="O95" t="s">
-        <v>782</v>
-      </c>
-      <c r="P95" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>529</v>
-      </c>
-      <c r="B96" t="s">
-        <v>621</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="D96" t="s">
-        <v>530</v>
-      </c>
-      <c r="E96" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>532</v>
-      </c>
-      <c r="B97" t="s">
-        <v>642</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="D97" t="s">
-        <v>533</v>
-      </c>
-      <c r="E97" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="B98" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="B99" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="L99" t="s">
-        <v>736</v>
+        <v>698</v>
       </c>
       <c r="M99" t="s">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="N99" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="B100" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>854</v>
+        <v>791</v>
       </c>
       <c r="D100" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="E100" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="J100" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="K100" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>737</v>
+        <v>699</v>
       </c>
       <c r="M100" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="N100" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>783</v>
+        <v>828</v>
       </c>
       <c r="P100" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="Q100" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="B101" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>855</v>
+        <v>792</v>
       </c>
       <c r="D101" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="E101" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>686</v>
+        <v>651</v>
       </c>
       <c r="J101" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="K101" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="L101" t="s">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="M101" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="N101" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>787</v>
+        <v>735</v>
       </c>
       <c r="P101" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="Q101" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="B102" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>856</v>
+        <v>793</v>
       </c>
       <c r="D102" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="E102" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="J102" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="K102" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>733</v>
+        <v>695</v>
       </c>
       <c r="M102" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="N102" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="O102" t="s">
-        <v>788</v>
+        <v>736</v>
       </c>
       <c r="P102" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="Q102" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="B103" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>857</v>
+        <v>794</v>
       </c>
       <c r="D103" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="E103" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="J103" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="K103" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="L103" t="s">
-        <v>739</v>
+        <v>701</v>
       </c>
       <c r="M103" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="N103" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>784</v>
+        <v>829</v>
       </c>
       <c r="P103" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="Q103" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="B104" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>858</v>
+        <v>795</v>
       </c>
       <c r="D104" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="E104" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="I104" t="s">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="J104" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="K104" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="L104" t="s">
-        <v>740</v>
+        <v>702</v>
       </c>
       <c r="M104" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="N104" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="O104" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="P104" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="Q104" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="B105" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="C105" t="s">
-        <v>859</v>
+        <v>796</v>
       </c>
       <c r="D105" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="E105" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="L105" t="s">
-        <v>741</v>
+        <v>703</v>
       </c>
       <c r="M105" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
       <c r="N105" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="P105" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="Q105" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="B106" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>860</v>
+        <v>797</v>
       </c>
       <c r="D106" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E106" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="L106" t="s">
-        <v>742</v>
+        <v>704</v>
       </c>
       <c r="M106" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="N106" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="B107" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="D107" t="s">
-        <v>595</v>
-      </c>
-      <c r="E107" t="s">
-        <v>596</v>
+        <v>868</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>870</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="J107" t="s">
-        <v>597</v>
-      </c>
-      <c r="K107" t="s">
-        <v>598</v>
+        <v>871</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>873</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>743</v>
+        <v>705</v>
       </c>
       <c r="M107" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="N107" t="s">
-        <v>600</v>
+        <v>569</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="P107" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>602</v>
+        <v>874</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>570</v>
+      </c>
+      <c r="B108" t="s">
+        <v>590</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D108" t="s">
+        <v>571</v>
+      </c>
+      <c r="E108" t="s">
+        <v>572</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="J108" t="s">
+        <v>573</v>
+      </c>
+      <c r="K108" t="s">
+        <v>574</v>
+      </c>
+      <c r="L108" t="s">
+        <v>706</v>
+      </c>
+      <c r="M108" t="s">
+        <v>575</v>
+      </c>
+      <c r="N108" t="s">
+        <v>576</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="P108" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="195" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>579</v>
+      </c>
+      <c r="B109" t="s">
         <v>603</v>
       </c>
-      <c r="B108" t="s">
-        <v>623</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="D108" t="s">
-        <v>604</v>
-      </c>
-      <c r="E108" t="s">
-        <v>605</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="J108" t="s">
-        <v>606</v>
-      </c>
-      <c r="K108" t="s">
-        <v>607</v>
-      </c>
-      <c r="L108" t="s">
-        <v>744</v>
-      </c>
-      <c r="M108" t="s">
-        <v>608</v>
-      </c>
-      <c r="N108" t="s">
-        <v>609</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="P108" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>612</v>
-      </c>
-      <c r="B109" t="s">
-        <v>636</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>863</v>
+        <v>799</v>
       </c>
       <c r="D109" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="E109" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>690</v>
+        <v>654</v>
       </c>
       <c r="J109" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="K109" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="L109" t="s">
-        <v>745</v>
+        <v>707</v>
       </c>
       <c r="M109" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="N109" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="Q109" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/Traduzido/PTBR/Lang/PTBR/Game/CharaText.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/CharaText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1643AF1E-BE30-415C-96B3-8A59278D4308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385B3467-CD09-48CF-8EB1-14DF9FDFBC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4498,8 +4498,8 @@
   <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4696,7 +4696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>225</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>244</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>315</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>406</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>440</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>442</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="210" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>452</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>457</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="315" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>494</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="180" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>567</v>
       </c>

--- a/Traduzido/PTBR/Lang/PTBR/Game/CharaText.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/CharaText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC7FB9-8B53-4830-A660-AD4EEBFBCEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C16C364-638F-46CA-BF31-429E023CE0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2974,12 +2974,6 @@
     <t>◦ 「 #self: *tlim...* 」 ◦</t>
   </si>
   <si>
-    <t>◦ 「 #self: *flutter* 」 ◦
-◦ 「 #self: *flit flit* 」 ◦
-◦ 「 #self  — *flick* 」 ◦
- ◦ 「 #self: *risada* 」 ◦</t>
-  </si>
-  <si>
     <t>◦ 「 #self: *flutter*_x000D_ 」 ◦
 ◦ 「 #self: *flick*_x000D_ 」 ◦
 ◦ 「 #self: *flap flap* 」 ◦</t>
@@ -4180,6 +4174,12 @@
   <si>
     <t>◦ 「 #self: Me desculpe... 」 ◦
 ◦ 「 #self: Essas correntes que um dia foram meu desejo &amp; nunca irão me soltar. 」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: *flutter* 」 ◦
+◦ 「 #self: *flit flit* 」 ◦
+◦ 「 #self : *flick* 」 ◦
+ ◦ 「 #self: *risada* 」 ◦</t>
   </si>
 </sst>
 </file>
@@ -4562,9 +4562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4718,7 +4718,7 @@
         <v>387</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>652</v>
+        <v>892</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -4735,7 +4735,7 @@
         <v>388</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -4744,7 +4744,7 @@
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M6" t="s">
         <v>439</v>
@@ -4753,7 +4753,7 @@
         <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>440</v>
@@ -4770,7 +4770,7 @@
         <v>385</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>441</v>
@@ -4779,7 +4779,7 @@
         <v>417</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>442</v>
@@ -4788,7 +4788,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>443</v>
@@ -4805,7 +4805,7 @@
         <v>385</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>444</v>
@@ -4814,7 +4814,7 @@
         <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>445</v>
@@ -4823,7 +4823,7 @@
         <v>39</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>446</v>
@@ -4832,7 +4832,7 @@
         <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P8" t="s">
         <v>447</v>
@@ -4849,7 +4849,7 @@
         <v>385</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>448</v>
@@ -4858,7 +4858,7 @@
         <v>43</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>449</v>
@@ -4867,7 +4867,7 @@
         <v>44</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>450</v>
@@ -4876,7 +4876,7 @@
         <v>45</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>451</v>
@@ -4893,7 +4893,7 @@
         <v>385</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>452</v>
@@ -4919,7 +4919,7 @@
         <v>389</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>453</v>
@@ -4928,7 +4928,7 @@
         <v>53</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>454</v>
@@ -4937,7 +4937,7 @@
         <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M11" t="s">
         <v>455</v>
@@ -4946,7 +4946,7 @@
         <v>55</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>456</v>
@@ -4963,7 +4963,7 @@
         <v>390</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>457</v>
@@ -4972,7 +4972,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>458</v>
@@ -4981,7 +4981,7 @@
         <v>59</v>
       </c>
       <c r="L12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M12" t="s">
         <v>459</v>
@@ -4990,7 +4990,7 @@
         <v>60</v>
       </c>
       <c r="O12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P12" t="s">
         <v>460</v>
@@ -5007,7 +5007,7 @@
         <v>387</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>461</v>
@@ -5019,7 +5019,7 @@
         <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M13" t="s">
         <v>411</v>
@@ -5036,7 +5036,7 @@
         <v>388</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>462</v>
@@ -5045,7 +5045,7 @@
         <v>67</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>454</v>
@@ -5054,7 +5054,7 @@
         <v>68</v>
       </c>
       <c r="L14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M14" t="s">
         <v>455</v>
@@ -5063,7 +5063,7 @@
         <v>69</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>456</v>
@@ -5080,7 +5080,7 @@
         <v>391</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>416</v>
@@ -5089,7 +5089,7 @@
         <v>72</v>
       </c>
       <c r="L15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M15" t="s">
         <v>73</v>
@@ -5098,7 +5098,7 @@
         <v>73</v>
       </c>
       <c r="O15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P15" t="s">
         <v>73</v>
@@ -5115,7 +5115,7 @@
         <v>392</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>463</v>
@@ -5124,7 +5124,7 @@
         <v>75</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>464</v>
@@ -5133,7 +5133,7 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P16" t="s">
         <v>465</v>
@@ -5150,7 +5150,7 @@
         <v>393</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>466</v>
@@ -5159,7 +5159,7 @@
         <v>79</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>466</v>
@@ -5168,7 +5168,7 @@
         <v>79</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>466</v>
@@ -5177,7 +5177,7 @@
         <v>79</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>466</v>
@@ -5194,7 +5194,7 @@
         <v>385</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>467</v>
@@ -5203,7 +5203,7 @@
         <v>81</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>468</v>
@@ -5212,7 +5212,7 @@
         <v>82</v>
       </c>
       <c r="O18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P18" t="s">
         <v>469</v>
@@ -5229,7 +5229,7 @@
         <v>392</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>467</v>
@@ -5238,7 +5238,7 @@
         <v>81</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>470</v>
@@ -5247,7 +5247,7 @@
         <v>85</v>
       </c>
       <c r="O19" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P19" t="s">
         <v>471</v>
@@ -5264,7 +5264,7 @@
         <v>385</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>472</v>
@@ -5273,7 +5273,7 @@
         <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J20" t="s">
         <v>473</v>
@@ -5282,7 +5282,7 @@
         <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M20" t="s">
         <v>474</v>
@@ -5291,7 +5291,7 @@
         <v>90</v>
       </c>
       <c r="O20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P20" t="s">
         <v>475</v>
@@ -5308,7 +5308,7 @@
         <v>385</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>476</v>
@@ -5317,7 +5317,7 @@
         <v>93</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>477</v>
@@ -5326,7 +5326,7 @@
         <v>94</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>478</v>
@@ -5343,7 +5343,7 @@
         <v>385</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>479</v>
@@ -5352,7 +5352,7 @@
         <v>97</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>480</v>
@@ -5361,7 +5361,7 @@
         <v>98</v>
       </c>
       <c r="O22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P22" t="s">
         <v>481</v>
@@ -5378,7 +5378,7 @@
         <v>389</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>482</v>
@@ -5395,7 +5395,7 @@
         <v>385</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>483</v>
@@ -5404,7 +5404,7 @@
         <v>103</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>484</v>
@@ -5413,7 +5413,7 @@
         <v>104</v>
       </c>
       <c r="L24" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M24" t="s">
         <v>485</v>
@@ -5422,7 +5422,7 @@
         <v>105</v>
       </c>
       <c r="O24" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P24" t="s">
         <v>486</v>
@@ -5439,7 +5439,7 @@
         <v>385</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>487</v>
@@ -5448,7 +5448,7 @@
         <v>108</v>
       </c>
       <c r="L25" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M25" t="s">
         <v>109</v>
@@ -5465,7 +5465,7 @@
         <v>385</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D26" t="s">
         <v>111</v>
@@ -5474,7 +5474,7 @@
         <v>112</v>
       </c>
       <c r="L26" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M26" t="s">
         <v>113</v>
@@ -5483,7 +5483,7 @@
         <v>114</v>
       </c>
       <c r="O26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P26" t="s">
         <v>488</v>
@@ -5500,7 +5500,7 @@
         <v>385</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>489</v>
@@ -5509,7 +5509,7 @@
         <v>117</v>
       </c>
       <c r="L27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M27" t="s">
         <v>490</v>
@@ -5518,7 +5518,7 @@
         <v>118</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>491</v>
@@ -5535,7 +5535,7 @@
         <v>394</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>492</v>
@@ -5544,7 +5544,7 @@
         <v>121</v>
       </c>
       <c r="I28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J28" t="s">
         <v>493</v>
@@ -5553,7 +5553,7 @@
         <v>122</v>
       </c>
       <c r="L28" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M28" t="s">
         <v>494</v>
@@ -5562,7 +5562,7 @@
         <v>123</v>
       </c>
       <c r="O28" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P28" t="s">
         <v>495</v>
@@ -5579,7 +5579,7 @@
         <v>395</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>496</v>
@@ -5588,7 +5588,7 @@
         <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J29" t="s">
         <v>493</v>
@@ -5597,7 +5597,7 @@
         <v>122</v>
       </c>
       <c r="L29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M29" t="s">
         <v>494</v>
@@ -5606,7 +5606,7 @@
         <v>123</v>
       </c>
       <c r="O29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P29" t="s">
         <v>495</v>
@@ -5623,7 +5623,7 @@
         <v>395</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>497</v>
@@ -5632,7 +5632,7 @@
         <v>128</v>
       </c>
       <c r="I30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J30" t="s">
         <v>493</v>
@@ -5641,7 +5641,7 @@
         <v>122</v>
       </c>
       <c r="L30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M30" t="s">
         <v>494</v>
@@ -5650,7 +5650,7 @@
         <v>123</v>
       </c>
       <c r="O30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P30" t="s">
         <v>495</v>
@@ -5667,7 +5667,7 @@
         <v>395</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>498</v>
@@ -5676,7 +5676,7 @@
         <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J31" t="s">
         <v>499</v>
@@ -5685,7 +5685,7 @@
         <v>131</v>
       </c>
       <c r="L31" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M31" t="s">
         <v>500</v>
@@ -5694,7 +5694,7 @@
         <v>132</v>
       </c>
       <c r="O31" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="P31" t="s">
         <v>501</v>
@@ -5711,7 +5711,7 @@
         <v>385</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>502</v>
@@ -5728,7 +5728,7 @@
         <v>386</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>503</v>
@@ -5737,7 +5737,7 @@
         <v>137</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P33" t="s">
         <v>138</v>
@@ -5754,7 +5754,7 @@
         <v>385</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>504</v>
@@ -5763,7 +5763,7 @@
         <v>141</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>505</v>
@@ -5772,7 +5772,7 @@
         <v>142</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>506</v>
@@ -5789,7 +5789,7 @@
         <v>385</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>507</v>
@@ -5798,7 +5798,7 @@
         <v>145</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>508</v>
@@ -5807,7 +5807,7 @@
         <v>146</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>509</v>
@@ -5816,7 +5816,7 @@
         <v>147</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>510</v>
@@ -5833,7 +5833,7 @@
         <v>396</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>511</v>
@@ -5842,7 +5842,7 @@
         <v>418</v>
       </c>
       <c r="F36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G36" t="s">
         <v>150</v>
@@ -5851,7 +5851,7 @@
         <v>150</v>
       </c>
       <c r="I36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J36" t="s">
         <v>150</v>
@@ -5860,7 +5860,7 @@
         <v>150</v>
       </c>
       <c r="L36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M36" t="s">
         <v>150</v>
@@ -5869,7 +5869,7 @@
         <v>150</v>
       </c>
       <c r="O36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P36" t="s">
         <v>150</v>
@@ -5886,7 +5886,7 @@
         <v>397</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D37" t="s">
         <v>152</v>
@@ -5895,7 +5895,7 @@
         <v>153</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>512</v>
@@ -5904,7 +5904,7 @@
         <v>154</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>508</v>
@@ -5913,7 +5913,7 @@
         <v>146</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>509</v>
@@ -5922,7 +5922,7 @@
         <v>147</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>510</v>
@@ -5939,7 +5939,7 @@
         <v>385</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>513</v>
@@ -5964,7 +5964,7 @@
         <v>389</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>514</v>
@@ -5973,7 +5973,7 @@
         <v>158</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>515</v>
@@ -5982,7 +5982,7 @@
         <v>159</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>516</v>
@@ -5991,7 +5991,7 @@
         <v>160</v>
       </c>
       <c r="O40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P40" t="s">
         <v>517</v>
@@ -6008,7 +6008,7 @@
         <v>385</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>518</v>
@@ -6017,7 +6017,7 @@
         <v>163</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>519</v>
@@ -6026,7 +6026,7 @@
         <v>420</v>
       </c>
       <c r="L41" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="M41" t="s">
         <v>520</v>
@@ -6035,7 +6035,7 @@
         <v>164</v>
       </c>
       <c r="O41" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="P41" t="s">
         <v>521</v>
@@ -6052,7 +6052,7 @@
         <v>398</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>522</v>
@@ -6061,7 +6061,7 @@
         <v>166</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>523</v>
@@ -6081,7 +6081,7 @@
         <v>389</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>524</v>
@@ -6090,7 +6090,7 @@
         <v>170</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>525</v>
@@ -6099,7 +6099,7 @@
         <v>171</v>
       </c>
       <c r="O43" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P43" t="s">
         <v>414</v>
@@ -6116,7 +6116,7 @@
         <v>385</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>526</v>
@@ -6125,7 +6125,7 @@
         <v>174</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P44" t="s">
         <v>175</v>
@@ -6142,7 +6142,7 @@
         <v>392</v>
       </c>
       <c r="C45" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D45" t="s">
         <v>415</v>
@@ -6151,7 +6151,7 @@
         <v>178</v>
       </c>
       <c r="L45" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M45" t="s">
         <v>527</v>
@@ -6160,7 +6160,7 @@
         <v>179</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="P45" t="s">
         <v>180</v>
@@ -6177,7 +6177,7 @@
         <v>389</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>528</v>
@@ -6186,7 +6186,7 @@
         <v>422</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>529</v>
@@ -6195,7 +6195,7 @@
         <v>423</v>
       </c>
       <c r="L46" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M46" t="s">
         <v>530</v>
@@ -6204,7 +6204,7 @@
         <v>183</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="P46" t="s">
         <v>180</v>
@@ -6221,7 +6221,7 @@
         <v>385</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D47" t="s">
         <v>185</v>
@@ -6230,7 +6230,7 @@
         <v>186</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>531</v>
@@ -6239,7 +6239,7 @@
         <v>187</v>
       </c>
       <c r="L47" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M47" t="s">
         <v>532</v>
@@ -6248,7 +6248,7 @@
         <v>188</v>
       </c>
       <c r="O47" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="P47" t="s">
         <v>533</v>
@@ -6265,7 +6265,7 @@
         <v>389</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>534</v>
@@ -6274,7 +6274,7 @@
         <v>191</v>
       </c>
       <c r="I48" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J48" t="s">
         <v>535</v>
@@ -6283,7 +6283,7 @@
         <v>192</v>
       </c>
       <c r="L48" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M48" t="s">
         <v>536</v>
@@ -6292,7 +6292,7 @@
         <v>193</v>
       </c>
       <c r="O48" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="P48" t="s">
         <v>536</v>
@@ -6309,7 +6309,7 @@
         <v>385</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>537</v>
@@ -6318,7 +6318,7 @@
         <v>195</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>538</v>
@@ -6327,7 +6327,7 @@
         <v>196</v>
       </c>
       <c r="O49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P49" t="s">
         <v>539</v>
@@ -6344,7 +6344,7 @@
         <v>399</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>540</v>
@@ -6353,7 +6353,7 @@
         <v>199</v>
       </c>
       <c r="I50" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J50" t="s">
         <v>200</v>
@@ -6362,7 +6362,7 @@
         <v>200</v>
       </c>
       <c r="L50" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M50" t="s">
         <v>200</v>
@@ -6371,7 +6371,7 @@
         <v>200</v>
       </c>
       <c r="O50" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P50" t="s">
         <v>200</v>
@@ -6388,7 +6388,7 @@
         <v>400</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>541</v>
@@ -6397,7 +6397,7 @@
         <v>202</v>
       </c>
       <c r="I51" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J51" t="s">
         <v>200</v>
@@ -6406,7 +6406,7 @@
         <v>200</v>
       </c>
       <c r="L51" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M51" t="s">
         <v>200</v>
@@ -6415,7 +6415,7 @@
         <v>200</v>
       </c>
       <c r="O51" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P51" t="s">
         <v>200</v>
@@ -6432,7 +6432,7 @@
         <v>399</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>542</v>
@@ -6441,7 +6441,7 @@
         <v>204</v>
       </c>
       <c r="I52" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J52" t="s">
         <v>200</v>
@@ -6450,7 +6450,7 @@
         <v>200</v>
       </c>
       <c r="L52" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M52" t="s">
         <v>200</v>
@@ -6459,7 +6459,7 @@
         <v>200</v>
       </c>
       <c r="O52" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P52" t="s">
         <v>200</v>
@@ -6476,7 +6476,7 @@
         <v>399</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>543</v>
@@ -6485,7 +6485,7 @@
         <v>206</v>
       </c>
       <c r="I53" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J53" t="s">
         <v>200</v>
@@ -6494,7 +6494,7 @@
         <v>200</v>
       </c>
       <c r="L53" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M53" t="s">
         <v>200</v>
@@ -6503,7 +6503,7 @@
         <v>200</v>
       </c>
       <c r="O53" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P53" t="s">
         <v>200</v>
@@ -6520,7 +6520,7 @@
         <v>387</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>544</v>
@@ -6529,7 +6529,7 @@
         <v>424</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>545</v>
@@ -6538,7 +6538,7 @@
         <v>208</v>
       </c>
       <c r="L54" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M54" t="s">
         <v>425</v>
@@ -6547,7 +6547,7 @@
         <v>426</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>546</v>
@@ -6564,7 +6564,7 @@
         <v>385</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>547</v>
@@ -6573,7 +6573,7 @@
         <v>210</v>
       </c>
       <c r="L55" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M55" t="s">
         <v>548</v>
@@ -6582,7 +6582,7 @@
         <v>211</v>
       </c>
       <c r="O55" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="P55" t="s">
         <v>549</v>
@@ -6599,7 +6599,7 @@
         <v>385</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>550</v>
@@ -6608,7 +6608,7 @@
         <v>214</v>
       </c>
       <c r="I56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J56" t="s">
         <v>109</v>
@@ -6617,7 +6617,7 @@
         <v>109</v>
       </c>
       <c r="L56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M56" t="s">
         <v>109</v>
@@ -6626,7 +6626,7 @@
         <v>109</v>
       </c>
       <c r="O56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="P56" t="s">
         <v>109</v>
@@ -6643,7 +6643,7 @@
         <v>385</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>551</v>
@@ -6652,7 +6652,7 @@
         <v>216</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>552</v>
@@ -6661,7 +6661,7 @@
         <v>217</v>
       </c>
       <c r="I57" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J57" t="s">
         <v>109</v>
@@ -6670,7 +6670,7 @@
         <v>109</v>
       </c>
       <c r="L57" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M57" t="s">
         <v>109</v>
@@ -6679,7 +6679,7 @@
         <v>109</v>
       </c>
       <c r="O57" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="P57" t="s">
         <v>109</v>
@@ -6696,7 +6696,7 @@
         <v>401</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>553</v>
@@ -6722,7 +6722,7 @@
         <v>385</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>554</v>
@@ -6731,7 +6731,7 @@
         <v>221</v>
       </c>
       <c r="I59" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J59" t="s">
         <v>222</v>
@@ -6740,7 +6740,7 @@
         <v>222</v>
       </c>
       <c r="L59" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M59" t="s">
         <v>222</v>
@@ -6749,7 +6749,7 @@
         <v>222</v>
       </c>
       <c r="O59" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P59" t="s">
         <v>222</v>
@@ -6766,7 +6766,7 @@
         <v>389</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>555</v>
@@ -6775,7 +6775,7 @@
         <v>224</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>556</v>
@@ -6784,7 +6784,7 @@
         <v>225</v>
       </c>
       <c r="I60" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J60" t="s">
         <v>150</v>
@@ -6793,7 +6793,7 @@
         <v>150</v>
       </c>
       <c r="L60" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M60" t="s">
         <v>150</v>
@@ -6802,7 +6802,7 @@
         <v>150</v>
       </c>
       <c r="O60" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P60" t="s">
         <v>150</v>
@@ -6819,7 +6819,7 @@
         <v>385</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>557</v>
@@ -6828,7 +6828,7 @@
         <v>227</v>
       </c>
       <c r="I61" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J61" t="s">
         <v>228</v>
@@ -6837,7 +6837,7 @@
         <v>228</v>
       </c>
       <c r="L61" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M61" t="s">
         <v>228</v>
@@ -6846,7 +6846,7 @@
         <v>228</v>
       </c>
       <c r="O61" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="P61" t="s">
         <v>228</v>
@@ -6863,7 +6863,7 @@
         <v>402</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>558</v>
@@ -6872,7 +6872,7 @@
         <v>230</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>559</v>
@@ -6881,7 +6881,7 @@
         <v>231</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>560</v>
@@ -6890,7 +6890,7 @@
         <v>232</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>561</v>
@@ -6907,7 +6907,7 @@
         <v>389</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>562</v>
@@ -6916,7 +6916,7 @@
         <v>235</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>563</v>
@@ -6925,7 +6925,7 @@
         <v>236</v>
       </c>
       <c r="L63" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M63" t="s">
         <v>564</v>
@@ -6934,7 +6934,7 @@
         <v>237</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>565</v>
@@ -6951,7 +6951,7 @@
         <v>389</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>566</v>
@@ -6960,7 +6960,7 @@
         <v>240</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>567</v>
@@ -6969,7 +6969,7 @@
         <v>241</v>
       </c>
       <c r="L64" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M64" t="s">
         <v>412</v>
@@ -6978,7 +6978,7 @@
         <v>242</v>
       </c>
       <c r="O64" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P64" t="s">
         <v>243</v>
@@ -6995,7 +6995,7 @@
         <v>385</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>568</v>
@@ -7012,7 +7012,7 @@
         <v>385</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>569</v>
@@ -7021,7 +7021,7 @@
         <v>248</v>
       </c>
       <c r="I66" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J66" t="s">
         <v>150</v>
@@ -7030,7 +7030,7 @@
         <v>150</v>
       </c>
       <c r="L66" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M66" t="s">
         <v>150</v>
@@ -7039,7 +7039,7 @@
         <v>150</v>
       </c>
       <c r="O66" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P66" t="s">
         <v>150</v>
@@ -7056,7 +7056,7 @@
         <v>403</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>570</v>
@@ -7065,7 +7065,7 @@
         <v>250</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>571</v>
@@ -7074,7 +7074,7 @@
         <v>251</v>
       </c>
       <c r="L67" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M67" t="s">
         <v>572</v>
@@ -7083,7 +7083,7 @@
         <v>252</v>
       </c>
       <c r="O67" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P67" t="s">
         <v>573</v>
@@ -7100,7 +7100,7 @@
         <v>385</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>574</v>
@@ -7117,7 +7117,7 @@
         <v>389</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>575</v>
@@ -7134,7 +7134,7 @@
         <v>385</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>576</v>
@@ -7151,7 +7151,7 @@
         <v>385</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>577</v>
@@ -7205,7 +7205,7 @@
         <v>270</v>
       </c>
       <c r="O74" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="P74" t="s">
         <v>578</v>
@@ -7222,7 +7222,7 @@
         <v>404</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>579</v>
@@ -7237,7 +7237,7 @@
         <v>274</v>
       </c>
       <c r="O75" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="P75" t="s">
         <v>578</v>
@@ -7254,7 +7254,7 @@
         <v>385</v>
       </c>
       <c r="L76" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="M76" t="s">
         <v>277</v>
@@ -7271,7 +7271,7 @@
         <v>385</v>
       </c>
       <c r="C77" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D77" t="s">
         <v>280</v>
@@ -7288,7 +7288,7 @@
         <v>385</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D78" t="s">
         <v>283</v>
@@ -7305,7 +7305,7 @@
         <v>391</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>580</v>
@@ -7314,7 +7314,7 @@
         <v>286</v>
       </c>
       <c r="L79" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M79" t="s">
         <v>581</v>
@@ -7331,7 +7331,7 @@
         <v>391</v>
       </c>
       <c r="C80" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D80" t="s">
         <v>289</v>
@@ -7340,7 +7340,7 @@
         <v>290</v>
       </c>
       <c r="L80" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M80" t="s">
         <v>582</v>
@@ -7368,7 +7368,7 @@
         <v>385</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>583</v>
@@ -7391,7 +7391,7 @@
         <v>385</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>584</v>
@@ -7400,7 +7400,7 @@
         <v>430</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>585</v>
@@ -7409,7 +7409,7 @@
         <v>297</v>
       </c>
       <c r="L83" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="M83" t="s">
         <v>586</v>
@@ -7418,7 +7418,7 @@
         <v>298</v>
       </c>
       <c r="O83" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P83" t="s">
         <v>587</v>
@@ -7435,7 +7435,7 @@
         <v>389</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>588</v>
@@ -7452,7 +7452,7 @@
         <v>397</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>589</v>
@@ -7461,7 +7461,7 @@
         <v>431</v>
       </c>
       <c r="L85" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M85" t="s">
         <v>590</v>
@@ -7470,7 +7470,7 @@
         <v>303</v>
       </c>
       <c r="O85" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P85" t="s">
         <v>591</v>
@@ -7487,7 +7487,7 @@
         <v>385</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>592</v>
@@ -7496,7 +7496,7 @@
         <v>174</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>593</v>
@@ -7513,7 +7513,7 @@
         <v>385</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>594</v>
@@ -7522,7 +7522,7 @@
         <v>307</v>
       </c>
       <c r="I87" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J87" t="s">
         <v>150</v>
@@ -7531,7 +7531,7 @@
         <v>150</v>
       </c>
       <c r="L87" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M87" t="s">
         <v>150</v>
@@ -7540,7 +7540,7 @@
         <v>150</v>
       </c>
       <c r="O87" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P87" t="s">
         <v>150</v>
@@ -7557,7 +7557,7 @@
         <v>385</v>
       </c>
       <c r="C88" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D88" t="s">
         <v>595</v>
@@ -7566,7 +7566,7 @@
         <v>309</v>
       </c>
       <c r="F88" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G88" t="s">
         <v>596</v>
@@ -7583,7 +7583,7 @@
         <v>385</v>
       </c>
       <c r="C89" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D89" t="s">
         <v>597</v>
@@ -7592,7 +7592,7 @@
         <v>309</v>
       </c>
       <c r="F89" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G89" t="s">
         <v>598</v>
@@ -7609,7 +7609,7 @@
         <v>385</v>
       </c>
       <c r="C90" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D90" t="s">
         <v>599</v>
@@ -7618,7 +7618,7 @@
         <v>314</v>
       </c>
       <c r="F90" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G90" t="s">
         <v>600</v>
@@ -7635,7 +7635,7 @@
         <v>405</v>
       </c>
       <c r="I91" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J91" t="s">
         <v>601</v>
@@ -7644,7 +7644,7 @@
         <v>317</v>
       </c>
       <c r="L91" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M91" t="s">
         <v>602</v>
@@ -7653,7 +7653,7 @@
         <v>318</v>
       </c>
       <c r="O91" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P91" t="s">
         <v>603</v>
@@ -7670,7 +7670,7 @@
         <v>385</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>604</v>
@@ -7687,7 +7687,7 @@
         <v>385</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>605</v>
@@ -7704,7 +7704,7 @@
         <v>385</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>606</v>
@@ -7713,7 +7713,7 @@
         <v>325</v>
       </c>
       <c r="F94" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G94" t="s">
         <v>607</v>
@@ -7730,7 +7730,7 @@
         <v>388</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>608</v>
@@ -7739,7 +7739,7 @@
         <v>328</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>609</v>
@@ -7748,7 +7748,7 @@
         <v>329</v>
       </c>
       <c r="L95" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M95" t="s">
         <v>610</v>
@@ -7757,7 +7757,7 @@
         <v>330</v>
       </c>
       <c r="O95" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="P95" t="s">
         <v>611</v>
@@ -7774,7 +7774,7 @@
         <v>385</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>612</v>
@@ -7791,7 +7791,7 @@
         <v>406</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>613</v>
@@ -7816,7 +7816,7 @@
         <v>404</v>
       </c>
       <c r="L99" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M99" t="s">
         <v>614</v>
@@ -7833,7 +7833,7 @@
         <v>408</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>615</v>
@@ -7842,7 +7842,7 @@
         <v>340</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>616</v>
@@ -7851,7 +7851,7 @@
         <v>341</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>617</v>
@@ -7860,7 +7860,7 @@
         <v>342</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>618</v>
@@ -7877,7 +7877,7 @@
         <v>409</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>619</v>
@@ -7886,7 +7886,7 @@
         <v>345</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>620</v>
@@ -7895,7 +7895,7 @@
         <v>346</v>
       </c>
       <c r="L101" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M101" t="s">
         <v>621</v>
@@ -7904,7 +7904,7 @@
         <v>347</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="P101" s="2" t="s">
         <v>622</v>
@@ -7921,7 +7921,7 @@
         <v>387</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D102" t="s">
         <v>350</v>
@@ -7930,7 +7930,7 @@
         <v>351</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>623</v>
@@ -7939,7 +7939,7 @@
         <v>352</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>592</v>
@@ -7948,7 +7948,7 @@
         <v>174</v>
       </c>
       <c r="O102" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="P102" t="s">
         <v>624</v>
@@ -7965,7 +7965,7 @@
         <v>389</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>625</v>
@@ -7974,7 +7974,7 @@
         <v>355</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>626</v>
@@ -7983,7 +7983,7 @@
         <v>356</v>
       </c>
       <c r="L103" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M103" t="s">
         <v>627</v>
@@ -7992,7 +7992,7 @@
         <v>357</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>628</v>
@@ -8009,7 +8009,7 @@
         <v>388</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>629</v>
@@ -8018,7 +8018,7 @@
         <v>360</v>
       </c>
       <c r="I104" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J104" t="s">
         <v>630</v>
@@ -8027,7 +8027,7 @@
         <v>361</v>
       </c>
       <c r="L104" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M104" t="s">
         <v>413</v>
@@ -8036,7 +8036,7 @@
         <v>362</v>
       </c>
       <c r="O104" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P104" t="s">
         <v>631</v>
@@ -8053,7 +8053,7 @@
         <v>387</v>
       </c>
       <c r="C105" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D105" t="s">
         <v>365</v>
@@ -8062,7 +8062,7 @@
         <v>366</v>
       </c>
       <c r="L105" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M105" t="s">
         <v>632</v>
@@ -8071,7 +8071,7 @@
         <v>367</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="P105" t="s">
         <v>368</v>
@@ -8088,7 +8088,7 @@
         <v>387</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>633</v>
@@ -8097,7 +8097,7 @@
         <v>371</v>
       </c>
       <c r="L106" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M106" t="s">
         <v>634</v>
@@ -8114,7 +8114,7 @@
         <v>410</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>635</v>
@@ -8123,7 +8123,7 @@
         <v>433</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>636</v>
@@ -8132,7 +8132,7 @@
         <v>434</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>637</v>
@@ -8141,7 +8141,7 @@
         <v>374</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>638</v>
@@ -8158,7 +8158,7 @@
         <v>387</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>639</v>
@@ -8167,7 +8167,7 @@
         <v>376</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>640</v>
@@ -8176,7 +8176,7 @@
         <v>377</v>
       </c>
       <c r="L108" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="M108" t="s">
         <v>641</v>
@@ -8185,7 +8185,7 @@
         <v>378</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>642</v>
@@ -8202,7 +8202,7 @@
         <v>400</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>643</v>
@@ -8211,7 +8211,7 @@
         <v>381</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>644</v>
@@ -8220,7 +8220,7 @@
         <v>382</v>
       </c>
       <c r="L109" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M109" t="s">
         <v>645</v>
@@ -8229,7 +8229,7 @@
         <v>383</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>646</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/CharaText.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/CharaText.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C16C364-638F-46CA-BF31-429E023CE0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350EBF38-1DF2-4FDB-A557-2A882B36F79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharaText" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharaText!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharaText!$A$2:$Q$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="912">
   <si>
     <t>id</t>
   </si>
@@ -1659,9 +1659,6 @@
     <t>Alpha 20.64</t>
   </si>
   <si>
-    <t>EA 23.104</t>
-  </si>
-  <si>
     <t>Beta 22.86</t>
   </si>
   <si>
@@ -3099,12 +3096,6 @@
 ◦ 「 #self: Miu miu._x000D_ 」 ◦
 ◦ 「 #self: Miu._x000D_ 」 ◦
 ◦ 「 #self: *ronron ronron* 」 ◦</t>
-  </si>
-  <si>
-    <t>◦ 「 #self: Miau!_x000D_ 」 ◦
-◦ 「 #self: Miu miu!_x000D_ 」 ◦
-◦ 「 #self: Miu!_x000D_ 」 ◦
-◦ 「 #self: Miau 」 ◦</t>
   </si>
   <si>
     <t>◦ 「 #self: Todo o ambiente ao seu redor traz a sensação de estar em um lugar sagrado._x000D_ 」 ◦
@@ -4180,6 +4171,93 @@
 ◦ 「 #self: *flit flit* 」 ◦
 ◦ 「 #self : *flick* 」 ◦
  ◦ 「 #self: *risada* 」 ◦</t>
+  </si>
+  <si>
+    <t>EA 23.114</t>
+  </si>
+  <si>
+    <t>gomachan</t>
+  </si>
+  <si>
+    <t>EA 23.112</t>
+  </si>
+  <si>
+    <t>「哦——」
+「哦——」
+「哦？」
+「哦」
+「哦—」</t>
+  </si>
+  <si>
+    <t>"Kyu."
+"Kyuu kyuu!"
+"Kyut?"
+"Kyu."
+"Kyuuu."</t>
+  </si>
+  <si>
+    <t>「キュー」
+「キューキュー」
+「キュッ？」
+「キュ」
+「キューッ」</t>
+  </si>
+  <si>
+    <t>"Kyut!"</t>
+  </si>
+  <si>
+    <t>「キュッ！」</t>
+  </si>
+  <si>
+    <t>"Kyu..."</t>
+  </si>
+  <si>
+    <t>「キュー…」</t>
+  </si>
+  <si>
+    <t>"Kyuuu!"</t>
+  </si>
+  <si>
+    <t>「キューッ！」</t>
+  </si>
+  <si>
+    <t>griffin</t>
+  </si>
+  <si>
+    <t>EA 23.117</t>
+  </si>
+  <si>
+    <t>「咕」
+「咕咕」
+「咕—！」</t>
+  </si>
+  <si>
+    <t>"Hoo."
+"Hoo-hooo."
+"Hooo!"</t>
+  </si>
+  <si>
+    <t>「ホゥ」
+「ホホゥ」
+「ホゥー！」</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: Miau!
+ 」 ◦
+◦ 「 #self: Miu miu!
+ 」 ◦
+◦ 「 #self: Miu!
+ 」 ◦
+◦ 「 #self: Miau 」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: "Kyut!" 」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self: Kyu.... 」 ◦</t>
+  </si>
+  <si>
+    <t>◦ 「 #self:Kyuuuuuu! 」 ◦</t>
   </si>
 </sst>
 </file>
@@ -4560,11 +4638,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q109"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O111" sqref="O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4640,7 +4719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4648,34 +4727,34 @@
         <v>385</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N3" t="s">
         <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="P3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4683,7 +4762,7 @@
         <v>386</v>
       </c>
       <c r="C4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -4692,7 +4771,7 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -4701,7 +4780,7 @@
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -4710,7 +4789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4718,7 +4797,7 @@
         <v>387</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -4727,42 +4806,51 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="285" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
-        <v>388</v>
+        <v>891</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
+        <v>846</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>607</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>328</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="K6" t="s">
+        <v>329</v>
       </c>
       <c r="L6" t="s">
-        <v>653</v>
+        <v>848</v>
       </c>
       <c r="M6" t="s">
-        <v>439</v>
+        <v>609</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>440</v>
+        <v>330</v>
+      </c>
+      <c r="O6" t="s">
+        <v>849</v>
+      </c>
+      <c r="P6" t="s">
+        <v>610</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4770,34 +4858,34 @@
         <v>385</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="K7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -4805,43 +4893,43 @@
         <v>385</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K8" t="s">
         <v>39</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N8" t="s">
         <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -4849,43 +4937,43 @@
         <v>385</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K9" t="s">
         <v>44</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N9" t="s">
         <v>45</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -4893,10 +4981,10 @@
         <v>385</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
@@ -4911,95 +4999,95 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K11" t="s">
         <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N11" t="s">
         <v>55</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E12" t="s">
         <v>58</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K12" t="s">
         <v>59</v>
       </c>
       <c r="L12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N12" t="s">
         <v>60</v>
       </c>
       <c r="O12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -5007,10 +5095,10 @@
         <v>387</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E13" t="s">
         <v>63</v>
@@ -5019,77 +5107,68 @@
         <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>891</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>462</v>
+        <v>651</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="K14" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="M14" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="Q14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E15" t="s">
         <v>72</v>
       </c>
       <c r="L15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="M15" t="s">
         <v>73</v>
@@ -5098,7 +5177,7 @@
         <v>73</v>
       </c>
       <c r="O15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="P15" t="s">
         <v>73</v>
@@ -5107,86 +5186,86 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K16" t="s">
         <v>75</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N16" t="s">
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="P16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E17" t="s">
         <v>79</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K17" t="s">
         <v>79</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N17" t="s">
         <v>79</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -5194,69 +5273,69 @@
         <v>385</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K18" t="s">
         <v>81</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N18" t="s">
         <v>82</v>
       </c>
       <c r="O18" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="P18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N19" t="s">
         <v>85</v>
       </c>
       <c r="O19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="195" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -5264,43 +5343,43 @@
         <v>385</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E20" t="s">
         <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K20" t="s">
         <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="M20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N20" t="s">
         <v>90</v>
       </c>
       <c r="O20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="P20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -5308,34 +5387,34 @@
         <v>385</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K21" t="s">
         <v>93</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N21" t="s">
         <v>94</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -5343,51 +5422,51 @@
         <v>385</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K22" t="s">
         <v>97</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N22" t="s">
         <v>98</v>
       </c>
       <c r="O22" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="P22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -5395,43 +5474,43 @@
         <v>385</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E24" t="s">
         <v>103</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K24" t="s">
         <v>104</v>
       </c>
       <c r="L24" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N24" t="s">
         <v>105</v>
       </c>
       <c r="O24" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="P24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -5439,16 +5518,16 @@
         <v>385</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K25" t="s">
         <v>108</v>
       </c>
       <c r="L25" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="M25" t="s">
         <v>109</v>
@@ -5457,7 +5536,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -5465,7 +5544,7 @@
         <v>385</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D26" t="s">
         <v>111</v>
@@ -5474,7 +5553,7 @@
         <v>112</v>
       </c>
       <c r="L26" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M26" t="s">
         <v>113</v>
@@ -5483,16 +5562,16 @@
         <v>114</v>
       </c>
       <c r="O26" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="P26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -5500,210 +5579,210 @@
         <v>385</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K27" t="s">
         <v>117</v>
       </c>
       <c r="L27" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N27" t="s">
         <v>118</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E28" t="s">
         <v>121</v>
       </c>
       <c r="I28" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K28" t="s">
         <v>122</v>
       </c>
       <c r="L28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N28" t="s">
         <v>123</v>
       </c>
       <c r="O28" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="P28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q28" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="405" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E29" t="s">
         <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K29" t="s">
         <v>122</v>
       </c>
       <c r="L29" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N29" t="s">
         <v>123</v>
       </c>
       <c r="O29" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="P29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="360" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E30" t="s">
         <v>128</v>
       </c>
       <c r="I30" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K30" t="s">
         <v>122</v>
       </c>
       <c r="L30" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N30" t="s">
         <v>123</v>
       </c>
       <c r="O30" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="P30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q30" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E31" t="s">
         <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K31" t="s">
         <v>131</v>
       </c>
       <c r="L31" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N31" t="s">
         <v>132</v>
       </c>
       <c r="O31" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="P31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -5711,16 +5790,16 @@
         <v>385</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -5728,16 +5807,16 @@
         <v>386</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N33" t="s">
         <v>137</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="P33" t="s">
         <v>138</v>
@@ -5746,7 +5825,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -5754,34 +5833,34 @@
         <v>385</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K34" t="s">
         <v>141</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N34" t="s">
         <v>142</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -5789,60 +5868,60 @@
         <v>385</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H35" t="s">
         <v>145</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K35" t="s">
         <v>146</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N35" t="s">
         <v>147</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F36" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G36" t="s">
         <v>150</v>
@@ -5851,7 +5930,7 @@
         <v>150</v>
       </c>
       <c r="I36" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J36" t="s">
         <v>150</v>
@@ -5860,7 +5939,7 @@
         <v>150</v>
       </c>
       <c r="L36" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="M36" t="s">
         <v>150</v>
@@ -5869,7 +5948,7 @@
         <v>150</v>
       </c>
       <c r="O36" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="P36" t="s">
         <v>150</v>
@@ -5878,15 +5957,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D37" t="s">
         <v>152</v>
@@ -5895,43 +5974,43 @@
         <v>153</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H37" t="s">
         <v>154</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K37" t="s">
         <v>146</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N37" t="s">
         <v>147</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="285" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>155</v>
       </c>
@@ -5939,16 +6018,16 @@
         <v>385</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -5956,51 +6035,51 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E40" t="s">
         <v>158</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K40" t="s">
         <v>159</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N40" t="s">
         <v>160</v>
       </c>
       <c r="O40" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="P40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q40" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -6008,63 +6087,63 @@
         <v>385</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E41" t="s">
         <v>163</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J41" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="L41" t="s">
+        <v>743</v>
+      </c>
+      <c r="M41" t="s">
         <v>519</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="L41" t="s">
-        <v>745</v>
-      </c>
-      <c r="M41" t="s">
-        <v>520</v>
       </c>
       <c r="N41" t="s">
         <v>164</v>
       </c>
       <c r="O41" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="P41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q41" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K42" t="s">
         <v>166</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N42" t="s">
         <v>167</v>
@@ -6073,42 +6152,42 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>169</v>
       </c>
       <c r="B43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K43" t="s">
         <v>170</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N43" t="s">
         <v>171</v>
       </c>
       <c r="O43" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="P43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q43" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -6116,16 +6195,16 @@
         <v>385</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N44" t="s">
         <v>174</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="P44" t="s">
         <v>175</v>
@@ -6134,33 +6213,33 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C45" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E45" t="s">
         <v>178</v>
       </c>
       <c r="L45" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N45" t="s">
         <v>179</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="P45" t="s">
         <v>180</v>
@@ -6169,42 +6248,42 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="L46" t="s">
         <v>757</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="J46" s="2" t="s">
+      <c r="M46" t="s">
         <v>529</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="L46" t="s">
-        <v>759</v>
-      </c>
-      <c r="M46" t="s">
-        <v>530</v>
       </c>
       <c r="N46" t="s">
         <v>183</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="P46" t="s">
         <v>180</v>
@@ -6213,7 +6292,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>184</v>
       </c>
@@ -6221,7 +6300,7 @@
         <v>385</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D47" t="s">
         <v>185</v>
@@ -6230,78 +6309,78 @@
         <v>186</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K47" t="s">
         <v>187</v>
       </c>
       <c r="L47" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="M47" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N47" t="s">
         <v>188</v>
       </c>
       <c r="O47" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="P47" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q47" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>190</v>
       </c>
       <c r="B48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E48" t="s">
         <v>191</v>
       </c>
       <c r="I48" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="J48" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K48" t="s">
         <v>192</v>
       </c>
       <c r="L48" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="M48" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N48" t="s">
         <v>193</v>
       </c>
       <c r="O48" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="P48" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q48" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -6309,51 +6388,51 @@
         <v>385</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K49" t="s">
         <v>195</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N49" t="s">
         <v>196</v>
       </c>
       <c r="O49" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="P49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q49" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E50" t="s">
         <v>199</v>
       </c>
       <c r="I50" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J50" t="s">
         <v>200</v>
@@ -6362,7 +6441,7 @@
         <v>200</v>
       </c>
       <c r="L50" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M50" t="s">
         <v>200</v>
@@ -6371,7 +6450,7 @@
         <v>200</v>
       </c>
       <c r="O50" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="P50" t="s">
         <v>200</v>
@@ -6380,24 +6459,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="270" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>201</v>
       </c>
       <c r="B51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E51" t="s">
         <v>202</v>
       </c>
       <c r="I51" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J51" t="s">
         <v>200</v>
@@ -6406,7 +6485,7 @@
         <v>200</v>
       </c>
       <c r="L51" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M51" t="s">
         <v>200</v>
@@ -6415,7 +6494,7 @@
         <v>200</v>
       </c>
       <c r="O51" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="P51" t="s">
         <v>200</v>
@@ -6424,24 +6503,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="195" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>203</v>
       </c>
       <c r="B52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E52" t="s">
         <v>204</v>
       </c>
       <c r="I52" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J52" t="s">
         <v>200</v>
@@ -6450,7 +6529,7 @@
         <v>200</v>
       </c>
       <c r="L52" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M52" t="s">
         <v>200</v>
@@ -6459,7 +6538,7 @@
         <v>200</v>
       </c>
       <c r="O52" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="P52" t="s">
         <v>200</v>
@@ -6468,24 +6547,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="255" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>205</v>
       </c>
       <c r="B53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E53" t="s">
         <v>206</v>
       </c>
       <c r="I53" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J53" t="s">
         <v>200</v>
@@ -6494,7 +6573,7 @@
         <v>200</v>
       </c>
       <c r="L53" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M53" t="s">
         <v>200</v>
@@ -6503,7 +6582,7 @@
         <v>200</v>
       </c>
       <c r="O53" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="P53" t="s">
         <v>200</v>
@@ -6512,7 +6591,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>207</v>
       </c>
@@ -6520,43 +6599,43 @@
         <v>387</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="K54" t="s">
         <v>208</v>
       </c>
       <c r="L54" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M54" t="s">
+        <v>424</v>
+      </c>
+      <c r="N54" t="s">
         <v>425</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q54" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="O54" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>209</v>
       </c>
@@ -6564,34 +6643,34 @@
         <v>385</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K55" t="s">
         <v>210</v>
       </c>
       <c r="L55" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="M55" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N55" t="s">
         <v>211</v>
       </c>
       <c r="O55" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="P55" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q55" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="240" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>213</v>
       </c>
@@ -6599,16 +6678,16 @@
         <v>385</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E56" t="s">
         <v>214</v>
       </c>
       <c r="I56" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J56" t="s">
         <v>109</v>
@@ -6617,7 +6696,7 @@
         <v>109</v>
       </c>
       <c r="L56" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="M56" t="s">
         <v>109</v>
@@ -6626,7 +6705,7 @@
         <v>109</v>
       </c>
       <c r="O56" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P56" t="s">
         <v>109</v>
@@ -6635,7 +6714,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -6643,25 +6722,25 @@
         <v>385</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E57" t="s">
         <v>216</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H57" t="s">
         <v>217</v>
       </c>
       <c r="I57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J57" t="s">
         <v>109</v>
@@ -6670,7 +6749,7 @@
         <v>109</v>
       </c>
       <c r="L57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="M57" t="s">
         <v>109</v>
@@ -6679,7 +6758,7 @@
         <v>109</v>
       </c>
       <c r="O57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P57" t="s">
         <v>109</v>
@@ -6688,18 +6767,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="330" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>218</v>
       </c>
       <c r="B58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E58" t="s">
         <v>219</v>
@@ -6714,7 +6793,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>220</v>
       </c>
@@ -6722,16 +6801,16 @@
         <v>385</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H59" t="s">
         <v>221</v>
       </c>
       <c r="I59" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="J59" t="s">
         <v>222</v>
@@ -6740,7 +6819,7 @@
         <v>222</v>
       </c>
       <c r="L59" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="M59" t="s">
         <v>222</v>
@@ -6749,7 +6828,7 @@
         <v>222</v>
       </c>
       <c r="O59" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="P59" t="s">
         <v>222</v>
@@ -6758,33 +6837,33 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E60" t="s">
         <v>224</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H60" t="s">
         <v>225</v>
       </c>
       <c r="I60" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J60" t="s">
         <v>150</v>
@@ -6793,7 +6872,7 @@
         <v>150</v>
       </c>
       <c r="L60" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="M60" t="s">
         <v>150</v>
@@ -6802,7 +6881,7 @@
         <v>150</v>
       </c>
       <c r="O60" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="P60" t="s">
         <v>150</v>
@@ -6811,7 +6890,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>226</v>
       </c>
@@ -6819,16 +6898,16 @@
         <v>385</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H61" t="s">
         <v>227</v>
       </c>
       <c r="I61" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J61" t="s">
         <v>228</v>
@@ -6837,7 +6916,7 @@
         <v>228</v>
       </c>
       <c r="L61" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="M61" t="s">
         <v>228</v>
@@ -6846,7 +6925,7 @@
         <v>228</v>
       </c>
       <c r="O61" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="P61" t="s">
         <v>228</v>
@@ -6855,130 +6934,130 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>229</v>
       </c>
       <c r="B62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E62" t="s">
         <v>230</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K62" t="s">
         <v>231</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N62" t="s">
         <v>232</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Q62" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E63" t="s">
         <v>235</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K63" t="s">
         <v>236</v>
       </c>
       <c r="L63" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M63" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N63" t="s">
         <v>237</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Q63" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="240" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>239</v>
       </c>
       <c r="B64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E64" t="s">
         <v>240</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K64" t="s">
         <v>241</v>
       </c>
       <c r="L64" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="M64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N64" t="s">
         <v>242</v>
       </c>
       <c r="O64" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="P64" t="s">
         <v>243</v>
@@ -6987,7 +7066,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>245</v>
       </c>
@@ -6995,16 +7074,16 @@
         <v>385</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H65" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>247</v>
       </c>
@@ -7012,16 +7091,16 @@
         <v>385</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H66" t="s">
         <v>248</v>
       </c>
       <c r="I66" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J66" t="s">
         <v>150</v>
@@ -7030,7 +7109,7 @@
         <v>150</v>
       </c>
       <c r="L66" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="M66" t="s">
         <v>150</v>
@@ -7039,7 +7118,7 @@
         <v>150</v>
       </c>
       <c r="O66" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="P66" t="s">
         <v>150</v>
@@ -7048,51 +7127,51 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="270" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>249</v>
       </c>
       <c r="B67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E67" t="s">
         <v>250</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K67" t="s">
         <v>251</v>
       </c>
       <c r="L67" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M67" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N67" t="s">
         <v>252</v>
       </c>
       <c r="O67" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="P67" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Q67" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="285" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>254</v>
       </c>
@@ -7100,33 +7179,33 @@
         <v>385</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E68" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>256</v>
       </c>
       <c r="B69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E69" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -7134,16 +7213,16 @@
         <v>385</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E70" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="255" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>260</v>
       </c>
@@ -7151,16 +7230,16 @@
         <v>385</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E71" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -7174,7 +7253,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>265</v>
       </c>
@@ -7182,13 +7261,13 @@
         <v>385</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K73" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>267</v>
       </c>
@@ -7205,27 +7284,27 @@
         <v>270</v>
       </c>
       <c r="O74" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="P74" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q74" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>272</v>
       </c>
       <c r="B75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E75" t="s">
         <v>273</v>
@@ -7237,16 +7316,16 @@
         <v>274</v>
       </c>
       <c r="O75" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="P75" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q75" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>276</v>
       </c>
@@ -7254,7 +7333,7 @@
         <v>385</v>
       </c>
       <c r="L76" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="M76" t="s">
         <v>277</v>
@@ -7263,7 +7342,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>279</v>
       </c>
@@ -7271,7 +7350,7 @@
         <v>385</v>
       </c>
       <c r="C77" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D77" t="s">
         <v>280</v>
@@ -7280,7 +7359,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>282</v>
       </c>
@@ -7288,7 +7367,7 @@
         <v>385</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D78" t="s">
         <v>283</v>
@@ -7297,41 +7376,41 @@
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>285</v>
       </c>
       <c r="B79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E79" t="s">
         <v>286</v>
       </c>
       <c r="L79" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M79" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N79" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>288</v>
       </c>
       <c r="B80" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C80" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D80" t="s">
         <v>289</v>
@@ -7340,16 +7419,16 @@
         <v>290</v>
       </c>
       <c r="L80" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="M80" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N80" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>292</v>
       </c>
@@ -7360,7 +7439,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>294</v>
       </c>
@@ -7368,13 +7447,13 @@
         <v>385</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K82" t="s">
         <v>295</v>
@@ -7383,7 +7462,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>296</v>
       </c>
@@ -7391,95 +7470,95 @@
         <v>385</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="K83" t="s">
         <v>297</v>
       </c>
       <c r="L83" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N83" t="s">
         <v>298</v>
       </c>
       <c r="O83" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="P83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Q83" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="330" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>300</v>
       </c>
       <c r="B84" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E84" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>302</v>
       </c>
       <c r="B85" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="L85" t="s">
+        <v>828</v>
+      </c>
+      <c r="M85" t="s">
         <v>589</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="L85" t="s">
-        <v>830</v>
-      </c>
-      <c r="M85" t="s">
-        <v>590</v>
       </c>
       <c r="N85" t="s">
         <v>303</v>
       </c>
       <c r="O85" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="P85" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q85" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>305</v>
       </c>
@@ -7487,25 +7566,25 @@
         <v>385</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N86" t="s">
         <v>174</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>306</v>
       </c>
@@ -7513,16 +7592,16 @@
         <v>385</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H87" t="s">
         <v>307</v>
       </c>
       <c r="I87" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J87" t="s">
         <v>150</v>
@@ -7531,7 +7610,7 @@
         <v>150</v>
       </c>
       <c r="L87" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="M87" t="s">
         <v>150</v>
@@ -7540,7 +7619,7 @@
         <v>150</v>
       </c>
       <c r="O87" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="P87" t="s">
         <v>150</v>
@@ -7549,7 +7628,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>308</v>
       </c>
@@ -7557,25 +7636,25 @@
         <v>385</v>
       </c>
       <c r="C88" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D88" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E88" t="s">
         <v>309</v>
       </c>
       <c r="F88" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G88" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H88" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>311</v>
       </c>
@@ -7583,25 +7662,25 @@
         <v>385</v>
       </c>
       <c r="C89" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D89" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E89" t="s">
         <v>309</v>
       </c>
       <c r="F89" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H89" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>313</v>
       </c>
@@ -7609,60 +7688,60 @@
         <v>385</v>
       </c>
       <c r="C90" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D90" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E90" t="s">
         <v>314</v>
       </c>
       <c r="F90" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G90" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H90" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>316</v>
       </c>
       <c r="B91" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I91" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J91" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K91" t="s">
         <v>317</v>
       </c>
       <c r="L91" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="M91" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N91" t="s">
         <v>318</v>
       </c>
       <c r="O91" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="P91" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q91" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>320</v>
       </c>
@@ -7670,16 +7749,16 @@
         <v>385</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E92" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>322</v>
       </c>
@@ -7687,16 +7766,16 @@
         <v>385</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E93" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>324</v>
       </c>
@@ -7704,69 +7783,69 @@
         <v>385</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E94" t="s">
         <v>325</v>
       </c>
       <c r="F94" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G94" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H94" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="285" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>327</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
-        <v>388</v>
+        <v>891</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>848</v>
+        <v>676</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>608</v>
+        <v>461</v>
       </c>
       <c r="E95" t="s">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>849</v>
+        <v>908</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>609</v>
+        <v>453</v>
       </c>
       <c r="K95" t="s">
-        <v>329</v>
+        <v>68</v>
       </c>
       <c r="L95" t="s">
-        <v>850</v>
+        <v>668</v>
       </c>
       <c r="M95" t="s">
-        <v>610</v>
+        <v>454</v>
       </c>
       <c r="N95" t="s">
-        <v>330</v>
-      </c>
-      <c r="O95" t="s">
-        <v>851</v>
-      </c>
-      <c r="P95" t="s">
-        <v>611</v>
+        <v>69</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="Q95" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>332</v>
       </c>
@@ -7774,146 +7853,146 @@
         <v>385</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E96" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>334</v>
       </c>
       <c r="B97" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E97" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>336</v>
       </c>
       <c r="B98" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>337</v>
       </c>
       <c r="B99" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L99" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="M99" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N99" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>339</v>
       </c>
       <c r="B100" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E100" t="s">
         <v>340</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K100" t="s">
         <v>341</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N100" t="s">
         <v>342</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Q100" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>344</v>
       </c>
       <c r="B101" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E101" t="s">
         <v>345</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K101" t="s">
         <v>346</v>
       </c>
       <c r="L101" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="M101" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N101" t="s">
         <v>347</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Q101" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>349</v>
       </c>
@@ -7921,7 +8000,7 @@
         <v>387</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D102" t="s">
         <v>350</v>
@@ -7930,122 +8009,122 @@
         <v>351</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K102" t="s">
         <v>352</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N102" t="s">
         <v>174</v>
       </c>
       <c r="O102" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="P102" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q102" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>354</v>
       </c>
       <c r="B103" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E103" t="s">
         <v>355</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K103" t="s">
         <v>356</v>
       </c>
       <c r="L103" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="M103" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N103" t="s">
         <v>357</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Q103" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>359</v>
+        <v>892</v>
       </c>
       <c r="B104" t="s">
-        <v>388</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>629</v>
+        <v>893</v>
+      </c>
+      <c r="C104" t="s">
+        <v>894</v>
+      </c>
+      <c r="D104" t="s">
+        <v>895</v>
       </c>
       <c r="E104" t="s">
-        <v>360</v>
+        <v>896</v>
       </c>
       <c r="I104" t="s">
-        <v>872</v>
+        <v>909</v>
       </c>
       <c r="J104" t="s">
-        <v>630</v>
+        <v>897</v>
       </c>
       <c r="K104" t="s">
-        <v>361</v>
+        <v>898</v>
       </c>
       <c r="L104" t="s">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="M104" t="s">
-        <v>413</v>
+        <v>899</v>
       </c>
       <c r="N104" t="s">
-        <v>362</v>
+        <v>900</v>
       </c>
       <c r="O104" t="s">
-        <v>874</v>
+        <v>911</v>
       </c>
       <c r="P104" t="s">
-        <v>631</v>
+        <v>901</v>
       </c>
       <c r="Q104" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>364</v>
       </c>
@@ -8053,7 +8132,7 @@
         <v>387</v>
       </c>
       <c r="C105" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D105" t="s">
         <v>365</v>
@@ -8062,16 +8141,16 @@
         <v>366</v>
       </c>
       <c r="L105" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M105" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N105" t="s">
         <v>367</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="P105" t="s">
         <v>368</v>
@@ -8080,7 +8159,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>370</v>
       </c>
@@ -8088,69 +8167,69 @@
         <v>387</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E106" t="s">
         <v>371</v>
       </c>
       <c r="L106" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="M106" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N106" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>373</v>
       </c>
       <c r="B107" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="L107" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="J107" s="2" t="s">
+      <c r="M107" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="N107" t="s">
         <v>374</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>375</v>
       </c>
@@ -8158,88 +8237,160 @@
         <v>387</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E108" t="s">
         <v>376</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K108" t="s">
         <v>377</v>
       </c>
       <c r="L108" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="M108" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N108" t="s">
         <v>378</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q108" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>380</v>
       </c>
       <c r="B109" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E109" t="s">
         <v>381</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K109" t="s">
         <v>382</v>
       </c>
       <c r="L109" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="M109" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N109" t="s">
         <v>383</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q109" t="s">
         <v>384</v>
       </c>
     </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>903</v>
+      </c>
+      <c r="B110" t="s">
+        <v>904</v>
+      </c>
+      <c r="C110" t="s">
+        <v>905</v>
+      </c>
+      <c r="D110" t="s">
+        <v>906</v>
+      </c>
+      <c r="E110" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>359</v>
+      </c>
+      <c r="B111" t="s">
+        <v>891</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E111" t="s">
+        <v>360</v>
+      </c>
+      <c r="I111" t="s">
+        <v>870</v>
+      </c>
+      <c r="J111" t="s">
+        <v>629</v>
+      </c>
+      <c r="K111" t="s">
+        <v>361</v>
+      </c>
+      <c r="L111" t="s">
+        <v>871</v>
+      </c>
+      <c r="M111" t="s">
+        <v>412</v>
+      </c>
+      <c r="N111" t="s">
+        <v>362</v>
+      </c>
+      <c r="O111" t="s">
+        <v>872</v>
+      </c>
+      <c r="P111" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Q2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:Q111" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="EA 23.112"/>
+        <filter val="EA 23.114"/>
+        <filter val="EA 23.117"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:Q111">
+      <sortCondition ref="A2:A111"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>